--- a/Document/My Ais/T9/T9_Prod_MyAIS_APP_3BO_EN.xlsx
+++ b/Document/My Ais/T9/T9_Prod_MyAIS_APP_3BO_EN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2055" windowWidth="20115" windowHeight="6015" tabRatio="879" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="2055" windowWidth="20115" windowHeight="6015" tabRatio="879" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Document Control" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="2288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="2289">
   <si>
     <t>ADVANCE INFO SERVICE (AIS)</t>
   </si>
@@ -19777,58 +19777,6 @@
 - สามารถคลิ๊กเมนู "Your Balance" และ redirect ได้</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. เปิดApp myAIS 
-2. Login ผ่าน 3G/4G หรือกดรับ OTP
-3. กด "OK" 
-4. คลิกไอคอน Quick Menu
-5. คลิกไอคอน "Search"
-6. เลื่อนมาที่ตัวอักษร "Y" 
-7. คลิ๊กเมนู สมัคร Your Balance
-8. ตรวจสอบหน้า Your Balance </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>[1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-9. Capture screen</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>[1]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> verify
-- Your balance</t>
-    </r>
-  </si>
-  <si>
     <t>ตรวจสอบ
 - สามารถคลิ๊กเมนู "Your Credit/Debit Card" และ redirect ได้</t>
   </si>
@@ -31510,6 +31458,99 @@
      - Roaming Service Rates
      - International Service
 4. Capture screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">N-Type Number : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3PO </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Status :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Active</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. เปิดApp myAIS 
+2. Login ผ่าน 3G/4G หรือกดรับ OTP
+3. กด "OK" 
+4. คลิกไอคอน Quick Menu
+5. คลิกไอคอน "Search"
+6. เลื่อนมาที่ตัวอักษร "Y" 
+7. คลิ๊กเมนู สมัคร Your Balance History
+8. ตรวจสอบหน้า Your Balance History </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+9. Capture screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> verify
+- Your Balance History</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -34594,6 +34635,74 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -34675,22 +34784,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -34703,118 +34796,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -34828,11 +34827,29 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -34861,25 +34878,58 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -34900,15 +34950,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -34918,6 +34959,10 @@
     <xf numFmtId="0" fontId="21" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="26" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="40" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="63" fillId="27" borderId="48" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -34934,15 +34979,11 @@
     <xf numFmtId="0" fontId="61" fillId="26" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="40" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="61" fillId="26" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="28" borderId="37" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="26" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="26" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -38646,7 +38687,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1107307</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>257198</xdr:rowOff>
+      <xdr:rowOff>257199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -38684,7 +38725,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1107307</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>352450</xdr:rowOff>
+      <xdr:rowOff>352449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -39570,25 +39611,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="596" t="s">
+      <c r="C5" s="568" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="597"/>
-      <c r="E5" s="598"/>
+      <c r="D5" s="569"/>
+      <c r="E5" s="570"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="594"/>
-      <c r="I5" s="594"/>
-      <c r="J5" s="594"/>
+      <c r="H5" s="560"/>
+      <c r="I5" s="560"/>
+      <c r="J5" s="560"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="570"/>
-      <c r="D6" s="571"/>
-      <c r="E6" s="572"/>
+      <c r="C6" s="590"/>
+      <c r="D6" s="591"/>
+      <c r="E6" s="592"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -39598,23 +39639,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="599"/>
-      <c r="D7" s="600"/>
-      <c r="E7" s="601"/>
+      <c r="C7" s="571"/>
+      <c r="D7" s="572"/>
+      <c r="E7" s="573"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="594"/>
-      <c r="I7" s="594"/>
-      <c r="J7" s="594"/>
+      <c r="H7" s="560"/>
+      <c r="I7" s="560"/>
+      <c r="J7" s="560"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="602" t="s">
+      <c r="C8" s="574" t="s">
         <v>237</v>
       </c>
-      <c r="D8" s="603"/>
-      <c r="E8" s="604"/>
+      <c r="D8" s="575"/>
+      <c r="E8" s="576"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -39637,58 +39678,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="588" t="s">
+      <c r="B11" s="561" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="589"/>
-      <c r="D11" s="595"/>
-      <c r="E11" s="595"/>
-      <c r="F11" s="590"/>
+      <c r="C11" s="562"/>
+      <c r="D11" s="563"/>
+      <c r="E11" s="563"/>
+      <c r="F11" s="564"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="581"/>
-      <c r="D12" s="583"/>
-      <c r="E12" s="583"/>
-      <c r="F12" s="584"/>
+      <c r="C12" s="565"/>
+      <c r="D12" s="566"/>
+      <c r="E12" s="566"/>
+      <c r="F12" s="567"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="581"/>
-      <c r="D13" s="583"/>
-      <c r="E13" s="583"/>
-      <c r="F13" s="584"/>
+      <c r="C13" s="565"/>
+      <c r="D13" s="566"/>
+      <c r="E13" s="566"/>
+      <c r="F13" s="567"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="581"/>
-      <c r="D14" s="583"/>
-      <c r="E14" s="583"/>
-      <c r="F14" s="584"/>
+      <c r="C14" s="565"/>
+      <c r="D14" s="566"/>
+      <c r="E14" s="566"/>
+      <c r="F14" s="567"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="581"/>
-      <c r="D15" s="583"/>
-      <c r="E15" s="583"/>
-      <c r="F15" s="584"/>
+      <c r="C15" s="565"/>
+      <c r="D15" s="566"/>
+      <c r="E15" s="566"/>
+      <c r="F15" s="567"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="585"/>
-      <c r="D16" s="586"/>
-      <c r="E16" s="586"/>
-      <c r="F16" s="587"/>
+      <c r="C16" s="601"/>
+      <c r="D16" s="602"/>
+      <c r="E16" s="602"/>
+      <c r="F16" s="603"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -39698,13 +39739,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="588" t="s">
+      <c r="B18" s="561" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="589"/>
-      <c r="D18" s="589"/>
-      <c r="E18" s="589"/>
-      <c r="F18" s="590"/>
+      <c r="C18" s="562"/>
+      <c r="D18" s="562"/>
+      <c r="E18" s="562"/>
+      <c r="F18" s="564"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -39716,10 +39757,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="576" t="s">
+      <c r="E19" s="596" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="591"/>
+      <c r="F19" s="604"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -39731,10 +39772,10 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="581" t="s">
+      <c r="E20" s="565" t="s">
         <v>240</v>
       </c>
-      <c r="F20" s="582"/>
+      <c r="F20" s="577"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
@@ -39744,10 +39785,10 @@
         <v>330</v>
       </c>
       <c r="D21" s="18"/>
-      <c r="E21" s="581" t="s">
+      <c r="E21" s="565" t="s">
         <v>331</v>
       </c>
-      <c r="F21" s="582"/>
+      <c r="F21" s="577"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16" t="s">
@@ -39757,10 +39798,10 @@
         <v>342</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="581" t="s">
+      <c r="E22" s="565" t="s">
         <v>341</v>
       </c>
-      <c r="F22" s="582"/>
+      <c r="F22" s="577"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
@@ -39770,52 +39811,52 @@
         <v>403</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="581" t="s">
+      <c r="E23" s="565" t="s">
         <v>408</v>
       </c>
-      <c r="F23" s="582"/>
+      <c r="F23" s="577"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="581"/>
-      <c r="F24" s="582"/>
+      <c r="E24" s="565"/>
+      <c r="F24" s="577"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="581"/>
-      <c r="F25" s="582"/>
+      <c r="E25" s="565"/>
+      <c r="F25" s="577"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="581"/>
-      <c r="F26" s="582"/>
+      <c r="E26" s="565"/>
+      <c r="F26" s="577"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="581"/>
-      <c r="F27" s="582"/>
+      <c r="E27" s="565"/>
+      <c r="F27" s="577"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="581"/>
-      <c r="F28" s="582"/>
+      <c r="E28" s="565"/>
+      <c r="F28" s="577"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="592"/>
-      <c r="F29" s="593"/>
+      <c r="E29" s="578"/>
+      <c r="F29" s="579"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -39825,67 +39866,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="573" t="s">
+      <c r="B31" s="593" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="574"/>
-      <c r="D31" s="574"/>
-      <c r="E31" s="575"/>
+      <c r="C31" s="594"/>
+      <c r="D31" s="594"/>
+      <c r="E31" s="595"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="576" t="s">
+      <c r="C32" s="596" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="577"/>
-      <c r="E32" s="577"/>
+      <c r="D32" s="597"/>
+      <c r="E32" s="597"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="562"/>
-      <c r="D33" s="563"/>
-      <c r="E33" s="563"/>
+      <c r="C33" s="582"/>
+      <c r="D33" s="583"/>
+      <c r="E33" s="583"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="578"/>
-      <c r="D34" s="579"/>
-      <c r="E34" s="580"/>
+      <c r="C34" s="598"/>
+      <c r="D34" s="599"/>
+      <c r="E34" s="600"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="560"/>
-      <c r="D35" s="561"/>
-      <c r="E35" s="561"/>
+      <c r="C35" s="580"/>
+      <c r="D35" s="581"/>
+      <c r="E35" s="581"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="562"/>
-      <c r="D36" s="563"/>
-      <c r="E36" s="563"/>
+      <c r="C36" s="582"/>
+      <c r="D36" s="583"/>
+      <c r="E36" s="583"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="564"/>
-      <c r="D37" s="565"/>
-      <c r="E37" s="566"/>
+      <c r="C37" s="584"/>
+      <c r="D37" s="585"/>
+      <c r="E37" s="586"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="567"/>
-      <c r="D38" s="568"/>
-      <c r="E38" s="569"/>
+      <c r="C38" s="587"/>
+      <c r="D38" s="588"/>
+      <c r="E38" s="589"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39911,22 +39952,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -39943,6 +39968,22 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40061,7 +40102,7 @@
     </row>
     <row r="5" spans="1:12" s="264" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="255" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B5" s="57" t="s">
         <v>771</v>
@@ -40082,7 +40123,7 @@
     </row>
     <row r="6" spans="1:12" s="264" customFormat="1" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="255" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B6" s="57" t="s">
         <v>773</v>
@@ -40103,7 +40144,7 @@
     </row>
     <row r="7" spans="1:12" s="264" customFormat="1" ht="241.5" x14ac:dyDescent="0.2">
       <c r="A7" s="255" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>775</v>
@@ -40124,7 +40165,7 @@
     </row>
     <row r="8" spans="1:12" s="264" customFormat="1" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="255" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B8" s="57" t="s">
         <v>777</v>
@@ -40739,16 +40780,16 @@
     </row>
     <row r="38" spans="1:11" s="264" customFormat="1" ht="73.5" x14ac:dyDescent="0.2">
       <c r="A38" s="255" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B38" s="256" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="C38" s="57" t="s">
         <v>876</v>
       </c>
       <c r="D38" s="269" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="E38" s="269"/>
       <c r="F38" s="263"/>
@@ -40784,7 +40825,7 @@
         <v>876</v>
       </c>
       <c r="D40" s="257" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="E40" s="257"/>
       <c r="F40" s="263"/>
@@ -40967,13 +41008,13 @@
         <v>917</v>
       </c>
       <c r="B49" s="256" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="C49" s="55" t="s">
         <v>876</v>
       </c>
       <c r="D49" s="273" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E49" s="273"/>
       <c r="F49" s="263"/>
@@ -41027,16 +41068,16 @@
     </row>
     <row r="52" spans="1:11" s="491" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="487" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="B52" s="484" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="C52" s="488" t="s">
         <v>876</v>
       </c>
       <c r="D52" s="489" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="E52" s="489"/>
       <c r="F52" s="490"/>
@@ -41072,7 +41113,7 @@
         <v>876</v>
       </c>
       <c r="D54" s="484" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="E54" s="269"/>
       <c r="F54" s="263"/>
@@ -41093,7 +41134,7 @@
         <v>876</v>
       </c>
       <c r="D55" s="484" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="E55" s="269"/>
       <c r="F55" s="263"/>
@@ -41114,7 +41155,7 @@
         <v>876</v>
       </c>
       <c r="D56" s="484" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="E56" s="269"/>
       <c r="F56" s="263"/>
@@ -41141,19 +41182,19 @@
     </row>
     <row r="58" spans="1:11" s="264" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A58" s="408" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B58" s="256" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="C58" s="118" t="s">
         <v>876</v>
       </c>
       <c r="D58" s="256" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E58" s="409" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="F58" s="270"/>
       <c r="G58" s="270"/>
@@ -41164,7 +41205,7 @@
     </row>
     <row r="59" spans="1:11" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A59" s="255" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B59" s="57" t="s">
         <v>859</v>
@@ -41185,7 +41226,7 @@
     </row>
     <row r="60" spans="1:11" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A60" s="255" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B60" s="57" t="s">
         <v>861</v>
@@ -41206,7 +41247,7 @@
     </row>
     <row r="61" spans="1:11" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A61" s="255" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B61" s="57" t="s">
         <v>863</v>
@@ -41227,7 +41268,7 @@
     </row>
     <row r="62" spans="1:11" ht="168" x14ac:dyDescent="0.2">
       <c r="A62" s="255" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B62" s="57" t="s">
         <v>865</v>
@@ -41263,19 +41304,19 @@
     </row>
     <row r="64" spans="1:11" s="264" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A64" s="255" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B64" s="256" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C64" s="118" t="s">
         <v>878</v>
       </c>
       <c r="D64" s="256" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E64" s="409" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="F64" s="270"/>
       <c r="G64" s="270"/>
@@ -41286,7 +41327,7 @@
     </row>
     <row r="65" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A65" s="255" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B65" s="57" t="s">
         <v>868</v>
@@ -41307,7 +41348,7 @@
     </row>
     <row r="66" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A66" s="255" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B66" s="57" t="s">
         <v>870</v>
@@ -41328,7 +41369,7 @@
     </row>
     <row r="67" spans="1:12" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A67" s="255" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B67" s="57" t="s">
         <v>872</v>
@@ -41349,7 +41390,7 @@
     </row>
     <row r="68" spans="1:12" ht="168" x14ac:dyDescent="0.2">
       <c r="A68" s="255" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B68" s="57" t="s">
         <v>874</v>
@@ -41370,7 +41411,7 @@
     </row>
     <row r="69" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="259" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="B69" s="260"/>
       <c r="C69" s="260"/>
@@ -41386,7 +41427,7 @@
     </row>
     <row r="70" spans="1:12" s="452" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="447" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B70" s="448"/>
       <c r="C70" s="448"/>
@@ -41402,19 +41443,19 @@
     </row>
     <row r="71" spans="1:12" s="457" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="453" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B71" s="454" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C71" s="454" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D71" s="454" t="s">
         <v>1566</v>
       </c>
-      <c r="C71" s="454" t="s">
+      <c r="E71" s="454" t="s">
         <v>1567</v>
-      </c>
-      <c r="D71" s="454" t="s">
-        <v>1568</v>
-      </c>
-      <c r="E71" s="454" t="s">
-        <v>1569</v>
       </c>
       <c r="F71" s="454"/>
       <c r="G71" s="454"/>
@@ -41426,19 +41467,19 @@
     </row>
     <row r="72" spans="1:12" s="457" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="453" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B72" s="454" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C72" s="454" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D72" s="454" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E72" s="454" t="s">
         <v>1570</v>
-      </c>
-      <c r="C72" s="454" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D72" s="454" t="s">
-        <v>1571</v>
-      </c>
-      <c r="E72" s="454" t="s">
-        <v>1572</v>
       </c>
       <c r="F72" s="454"/>
       <c r="G72" s="454"/>
@@ -41450,7 +41491,7 @@
     </row>
     <row r="73" spans="1:12" s="462" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="458" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B73" s="459"/>
       <c r="C73" s="459"/>
@@ -41466,19 +41507,19 @@
     </row>
     <row r="74" spans="1:12" s="464" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="453" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B74" s="454" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C74" s="454" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D74" s="454" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E74" s="454" t="s">
         <v>1574</v>
-      </c>
-      <c r="C74" s="454" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D74" s="454" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E74" s="454" t="s">
-        <v>1576</v>
       </c>
       <c r="F74" s="454"/>
       <c r="G74" s="454"/>
@@ -41490,19 +41531,19 @@
     </row>
     <row r="75" spans="1:12" s="464" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="453" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B75" s="454" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C75" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D75" s="454" t="s">
         <v>1577</v>
       </c>
-      <c r="C75" s="454" t="s">
+      <c r="E75" s="454" t="s">
         <v>1578</v>
-      </c>
-      <c r="D75" s="454" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E75" s="454" t="s">
-        <v>1580</v>
       </c>
       <c r="F75" s="454"/>
       <c r="G75" s="454"/>
@@ -41514,19 +41555,19 @@
     </row>
     <row r="76" spans="1:12" s="464" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="453" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B76" s="454" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C76" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D76" s="454" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E76" s="454" t="s">
         <v>1581</v>
-      </c>
-      <c r="C76" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D76" s="454" t="s">
-        <v>1582</v>
-      </c>
-      <c r="E76" s="454" t="s">
-        <v>1583</v>
       </c>
       <c r="F76" s="454"/>
       <c r="G76" s="454"/>
@@ -41538,19 +41579,19 @@
     </row>
     <row r="77" spans="1:12" s="464" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="453" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B77" s="454" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C77" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D77" s="454" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E77" s="454" t="s">
         <v>1584</v>
-      </c>
-      <c r="C77" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D77" s="454" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E77" s="454" t="s">
-        <v>1586</v>
       </c>
       <c r="F77" s="454"/>
       <c r="G77" s="454"/>
@@ -41562,7 +41603,7 @@
     </row>
     <row r="78" spans="1:12" s="469" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="465" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B78" s="466"/>
       <c r="C78" s="466"/>
@@ -41578,19 +41619,19 @@
     </row>
     <row r="79" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="453" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B79" s="454" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C79" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D79" s="454" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E79" s="454" t="s">
         <v>1588</v>
-      </c>
-      <c r="C79" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D79" s="454" t="s">
-        <v>1589</v>
-      </c>
-      <c r="E79" s="454" t="s">
-        <v>1590</v>
       </c>
       <c r="F79" s="454"/>
       <c r="G79" s="454"/>
@@ -41602,19 +41643,19 @@
     </row>
     <row r="80" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="453" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B80" s="454" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C80" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D80" s="454" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E80" s="454" t="s">
         <v>1591</v>
-      </c>
-      <c r="C80" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D80" s="454" t="s">
-        <v>1592</v>
-      </c>
-      <c r="E80" s="454" t="s">
-        <v>1593</v>
       </c>
       <c r="F80" s="454"/>
       <c r="G80" s="454"/>
@@ -41626,19 +41667,19 @@
     </row>
     <row r="81" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="453" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B81" s="471" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C81" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D81" s="454" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E81" s="454" t="s">
         <v>1594</v>
-      </c>
-      <c r="C81" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D81" s="454" t="s">
-        <v>1595</v>
-      </c>
-      <c r="E81" s="454" t="s">
-        <v>1596</v>
       </c>
       <c r="F81" s="454"/>
       <c r="G81" s="454"/>
@@ -41650,19 +41691,19 @@
     </row>
     <row r="82" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="453" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="B82" s="454" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C82" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D82" s="454" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E82" s="454" t="s">
         <v>1597</v>
-      </c>
-      <c r="C82" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D82" s="454" t="s">
-        <v>1598</v>
-      </c>
-      <c r="E82" s="454" t="s">
-        <v>1599</v>
       </c>
       <c r="F82" s="454"/>
       <c r="G82" s="454"/>
@@ -41674,7 +41715,7 @@
     </row>
     <row r="83" spans="1:12" s="469" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="465" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="B83" s="466"/>
       <c r="C83" s="466"/>
@@ -41690,19 +41731,19 @@
     </row>
     <row r="84" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="453" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B84" s="454" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C84" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D84" s="454" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E84" s="454" t="s">
         <v>1601</v>
-      </c>
-      <c r="C84" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D84" s="454" t="s">
-        <v>1602</v>
-      </c>
-      <c r="E84" s="454" t="s">
-        <v>1603</v>
       </c>
       <c r="F84" s="454"/>
       <c r="G84" s="454"/>
@@ -41714,19 +41755,19 @@
     </row>
     <row r="85" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="453" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="B85" s="454" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C85" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D85" s="454" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E85" s="454" t="s">
         <v>1604</v>
-      </c>
-      <c r="C85" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D85" s="454" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E85" s="454" t="s">
-        <v>1606</v>
       </c>
       <c r="F85" s="454"/>
       <c r="G85" s="454"/>
@@ -41738,19 +41779,19 @@
     </row>
     <row r="86" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="453" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="B86" s="454" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C86" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D86" s="454" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E86" s="454" t="s">
         <v>1607</v>
-      </c>
-      <c r="C86" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D86" s="454" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E86" s="454" t="s">
-        <v>1609</v>
       </c>
       <c r="F86" s="454"/>
       <c r="G86" s="454"/>
@@ -41762,19 +41803,19 @@
     </row>
     <row r="87" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="453" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B87" s="454" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C87" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D87" s="454" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E87" s="454" t="s">
         <v>1610</v>
-      </c>
-      <c r="C87" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D87" s="454" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E87" s="454" t="s">
-        <v>1612</v>
       </c>
       <c r="F87" s="454"/>
       <c r="G87" s="454"/>
@@ -41786,19 +41827,19 @@
     </row>
     <row r="88" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="453" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="B88" s="454" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C88" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D88" s="454" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E88" s="454" t="s">
         <v>1613</v>
-      </c>
-      <c r="C88" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D88" s="454" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E88" s="454" t="s">
-        <v>1615</v>
       </c>
       <c r="F88" s="454"/>
       <c r="G88" s="454"/>
@@ -41810,19 +41851,19 @@
     </row>
     <row r="89" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="453" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B89" s="454" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C89" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D89" s="454" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E89" s="454" t="s">
         <v>1616</v>
-      </c>
-      <c r="C89" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D89" s="454" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E89" s="454" t="s">
-        <v>1618</v>
       </c>
       <c r="F89" s="454"/>
       <c r="G89" s="454"/>
@@ -41834,19 +41875,19 @@
     </row>
     <row r="90" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="453" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="B90" s="454" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C90" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D90" s="454" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E90" s="454" t="s">
         <v>1619</v>
-      </c>
-      <c r="C90" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D90" s="454" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E90" s="454" t="s">
-        <v>1621</v>
       </c>
       <c r="F90" s="454"/>
       <c r="G90" s="454"/>
@@ -41858,19 +41899,19 @@
     </row>
     <row r="91" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="453" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="B91" s="454" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C91" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D91" s="454" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E91" s="454" t="s">
         <v>1622</v>
-      </c>
-      <c r="C91" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D91" s="454" t="s">
-        <v>1623</v>
-      </c>
-      <c r="E91" s="454" t="s">
-        <v>1624</v>
       </c>
       <c r="F91" s="454"/>
       <c r="G91" s="454"/>
@@ -41882,19 +41923,19 @@
     </row>
     <row r="92" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="453" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="B92" s="454" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C92" s="454" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D92" s="454" t="s">
         <v>1625</v>
       </c>
-      <c r="C92" s="454" t="s">
+      <c r="E92" s="454" t="s">
         <v>1626</v>
-      </c>
-      <c r="D92" s="454" t="s">
-        <v>1627</v>
-      </c>
-      <c r="E92" s="454" t="s">
-        <v>1628</v>
       </c>
       <c r="F92" s="454"/>
       <c r="G92" s="454"/>
@@ -41906,305 +41947,305 @@
     </row>
     <row r="93" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="453" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B93" s="454" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C93" s="454" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D93" s="454" t="s">
         <v>1629</v>
       </c>
-      <c r="C93" s="454" t="s">
+      <c r="E93" s="454" t="s">
         <v>1630</v>
-      </c>
-      <c r="D93" s="454" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E93" s="454" t="s">
-        <v>1632</v>
       </c>
       <c r="F93" s="454"/>
       <c r="G93" s="454"/>
       <c r="H93" s="454"/>
       <c r="I93" s="454"/>
       <c r="J93" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K93" s="454"/>
       <c r="L93" s="472"/>
     </row>
     <row r="94" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="453" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B94" s="454" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C94" s="454" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D94" s="454" t="s">
         <v>1634</v>
       </c>
-      <c r="C94" s="454" t="s">
+      <c r="E94" s="454" t="s">
         <v>1635</v>
-      </c>
-      <c r="D94" s="454" t="s">
-        <v>1636</v>
-      </c>
-      <c r="E94" s="454" t="s">
-        <v>1637</v>
       </c>
       <c r="F94" s="454"/>
       <c r="G94" s="454"/>
       <c r="H94" s="454"/>
       <c r="I94" s="454"/>
       <c r="J94" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K94" s="454"/>
       <c r="L94" s="472"/>
     </row>
     <row r="95" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="453" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B95" s="454" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C95" s="454" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D95" s="454" t="s">
         <v>1638</v>
       </c>
-      <c r="C95" s="454" t="s">
+      <c r="E95" s="454" t="s">
         <v>1639</v>
-      </c>
-      <c r="D95" s="454" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E95" s="454" t="s">
-        <v>1641</v>
       </c>
       <c r="F95" s="454"/>
       <c r="G95" s="454"/>
       <c r="H95" s="454"/>
       <c r="I95" s="454"/>
       <c r="J95" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K95" s="454"/>
       <c r="L95" s="472"/>
     </row>
     <row r="96" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="453" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="B96" s="454" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C96" s="454" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D96" s="454" t="s">
         <v>1642</v>
       </c>
-      <c r="C96" s="454" t="s">
+      <c r="E96" s="454" t="s">
         <v>1643</v>
-      </c>
-      <c r="D96" s="454" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E96" s="454" t="s">
-        <v>1645</v>
       </c>
       <c r="F96" s="454"/>
       <c r="G96" s="454"/>
       <c r="H96" s="454"/>
       <c r="I96" s="454"/>
       <c r="J96" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K96" s="454"/>
       <c r="L96" s="472"/>
     </row>
     <row r="97" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="453" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="B97" s="454" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C97" s="454" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D97" s="454" t="s">
         <v>1646</v>
       </c>
-      <c r="C97" s="454" t="s">
+      <c r="E97" s="454" t="s">
         <v>1647</v>
-      </c>
-      <c r="D97" s="454" t="s">
-        <v>1648</v>
-      </c>
-      <c r="E97" s="454" t="s">
-        <v>1649</v>
       </c>
       <c r="F97" s="454"/>
       <c r="G97" s="454"/>
       <c r="H97" s="454"/>
       <c r="I97" s="454"/>
       <c r="J97" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K97" s="454"/>
       <c r="L97" s="472"/>
     </row>
     <row r="98" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="453" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="B98" s="454" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C98" s="454" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D98" s="454" t="s">
         <v>1650</v>
       </c>
-      <c r="C98" s="454" t="s">
+      <c r="E98" s="454" t="s">
         <v>1651</v>
-      </c>
-      <c r="D98" s="454" t="s">
-        <v>1652</v>
-      </c>
-      <c r="E98" s="454" t="s">
-        <v>1653</v>
       </c>
       <c r="F98" s="454"/>
       <c r="G98" s="454"/>
       <c r="H98" s="454"/>
       <c r="I98" s="454"/>
       <c r="J98" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K98" s="454"/>
       <c r="L98" s="472"/>
     </row>
     <row r="99" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="453" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="B99" s="454" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C99" s="454" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D99" s="454" t="s">
         <v>1654</v>
       </c>
-      <c r="C99" s="454" t="s">
+      <c r="E99" s="454" t="s">
         <v>1655</v>
-      </c>
-      <c r="D99" s="454" t="s">
-        <v>1656</v>
-      </c>
-      <c r="E99" s="454" t="s">
-        <v>1657</v>
       </c>
       <c r="F99" s="454"/>
       <c r="G99" s="454"/>
       <c r="H99" s="454"/>
       <c r="I99" s="454"/>
       <c r="J99" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K99" s="454"/>
       <c r="L99" s="472"/>
     </row>
     <row r="100" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="453" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="B100" s="454" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C100" s="454" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D100" s="454" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E100" s="454" t="s">
         <v>1658</v>
-      </c>
-      <c r="C100" s="454" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D100" s="454" t="s">
-        <v>1659</v>
-      </c>
-      <c r="E100" s="454" t="s">
-        <v>1660</v>
       </c>
       <c r="F100" s="454"/>
       <c r="G100" s="454"/>
       <c r="H100" s="454"/>
       <c r="I100" s="454"/>
       <c r="J100" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K100" s="454"/>
       <c r="L100" s="472"/>
     </row>
     <row r="101" spans="1:12" s="474" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="453" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="B101" s="454" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C101" s="454" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D101" s="454" t="s">
         <v>1661</v>
       </c>
-      <c r="C101" s="454" t="s">
+      <c r="E101" s="454" t="s">
         <v>1662</v>
-      </c>
-      <c r="D101" s="454" t="s">
-        <v>1663</v>
-      </c>
-      <c r="E101" s="454" t="s">
-        <v>1664</v>
       </c>
       <c r="F101" s="454"/>
       <c r="G101" s="454"/>
       <c r="H101" s="454"/>
       <c r="I101" s="454"/>
       <c r="J101" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K101" s="454"/>
       <c r="L101" s="473"/>
     </row>
     <row r="102" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="453" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="B102" s="454" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C102" s="454" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D102" s="454" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E102" s="454" t="s">
         <v>1665</v>
-      </c>
-      <c r="C102" s="454" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D102" s="454" t="s">
-        <v>1666</v>
-      </c>
-      <c r="E102" s="454" t="s">
-        <v>1667</v>
       </c>
       <c r="F102" s="454"/>
       <c r="G102" s="454"/>
       <c r="H102" s="454"/>
       <c r="I102" s="454"/>
       <c r="J102" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K102" s="454"/>
       <c r="L102" s="472"/>
     </row>
     <row r="103" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="453" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="B103" s="454" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C103" s="454" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D103" s="454" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E103" s="454" t="s">
         <v>1668</v>
-      </c>
-      <c r="C103" s="454" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D103" s="454" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E103" s="454" t="s">
-        <v>1670</v>
       </c>
       <c r="F103" s="454"/>
       <c r="G103" s="454"/>
       <c r="H103" s="454"/>
       <c r="I103" s="454"/>
       <c r="J103" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K103" s="454"/>
       <c r="L103" s="472"/>
     </row>
     <row r="104" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="453" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="B104" s="454" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C104" s="454" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D104" s="454" t="s">
         <v>1671</v>
       </c>
-      <c r="C104" s="454" t="s">
+      <c r="E104" s="454" t="s">
         <v>1672</v>
-      </c>
-      <c r="D104" s="454" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E104" s="454" t="s">
-        <v>1674</v>
       </c>
       <c r="F104" s="454"/>
       <c r="G104" s="454"/>
@@ -42216,19 +42257,19 @@
     </row>
     <row r="105" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="453" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="B105" s="454" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C105" s="454" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D105" s="454" t="s">
         <v>1675</v>
       </c>
-      <c r="C105" s="454" t="s">
+      <c r="E105" s="454" t="s">
         <v>1676</v>
-      </c>
-      <c r="D105" s="454" t="s">
-        <v>1677</v>
-      </c>
-      <c r="E105" s="454" t="s">
-        <v>1678</v>
       </c>
       <c r="F105" s="454"/>
       <c r="G105" s="454"/>
@@ -42240,19 +42281,19 @@
     </row>
     <row r="106" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="453" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="B106" s="454" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C106" s="454" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D106" s="454" t="s">
         <v>1679</v>
       </c>
-      <c r="C106" s="454" t="s">
+      <c r="E106" s="454" t="s">
         <v>1680</v>
-      </c>
-      <c r="D106" s="454" t="s">
-        <v>1681</v>
-      </c>
-      <c r="E106" s="454" t="s">
-        <v>1682</v>
       </c>
       <c r="F106" s="454"/>
       <c r="G106" s="454"/>
@@ -42264,19 +42305,19 @@
     </row>
     <row r="107" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="453" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="B107" s="454" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C107" s="454" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D107" s="454" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E107" s="454" t="s">
         <v>1683</v>
-      </c>
-      <c r="C107" s="454" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D107" s="454" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E107" s="454" t="s">
-        <v>1685</v>
       </c>
       <c r="F107" s="454"/>
       <c r="G107" s="454"/>
@@ -42288,19 +42329,19 @@
     </row>
     <row r="108" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="453" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B108" s="454" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C108" s="454" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D108" s="454" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E108" s="454" t="s">
         <v>1686</v>
-      </c>
-      <c r="C108" s="454" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D108" s="454" t="s">
-        <v>1687</v>
-      </c>
-      <c r="E108" s="454" t="s">
-        <v>1688</v>
       </c>
       <c r="F108" s="454"/>
       <c r="G108" s="454"/>
@@ -42312,331 +42353,331 @@
     </row>
     <row r="109" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="453" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="B109" s="454" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C109" s="454" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D109" s="454" t="s">
         <v>1689</v>
       </c>
-      <c r="C109" s="454" t="s">
+      <c r="E109" s="454" t="s">
         <v>1690</v>
-      </c>
-      <c r="D109" s="454" t="s">
-        <v>1691</v>
-      </c>
-      <c r="E109" s="454" t="s">
-        <v>1692</v>
       </c>
       <c r="F109" s="454"/>
       <c r="G109" s="454"/>
       <c r="H109" s="454"/>
       <c r="I109" s="454"/>
       <c r="J109" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K109" s="454"/>
       <c r="L109" s="472"/>
     </row>
     <row r="110" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="453" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="B110" s="454" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C110" s="454" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D110" s="454" t="s">
         <v>1693</v>
       </c>
-      <c r="C110" s="454" t="s">
+      <c r="E110" s="454" t="s">
         <v>1694</v>
-      </c>
-      <c r="D110" s="454" t="s">
-        <v>1695</v>
-      </c>
-      <c r="E110" s="454" t="s">
-        <v>1696</v>
       </c>
       <c r="F110" s="454"/>
       <c r="G110" s="454"/>
       <c r="H110" s="454"/>
       <c r="I110" s="454"/>
       <c r="J110" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K110" s="454"/>
       <c r="L110" s="472"/>
     </row>
     <row r="111" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="453" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="B111" s="454" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C111" s="454" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D111" s="454" t="s">
         <v>1697</v>
       </c>
-      <c r="C111" s="454" t="s">
+      <c r="E111" s="454" t="s">
         <v>1698</v>
-      </c>
-      <c r="D111" s="454" t="s">
-        <v>1699</v>
-      </c>
-      <c r="E111" s="454" t="s">
-        <v>1700</v>
       </c>
       <c r="F111" s="454"/>
       <c r="G111" s="454"/>
       <c r="H111" s="454"/>
       <c r="I111" s="454"/>
       <c r="J111" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K111" s="454"/>
       <c r="L111" s="472"/>
     </row>
     <row r="112" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="453" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="B112" s="454" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C112" s="454" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D112" s="454" t="s">
         <v>1701</v>
       </c>
-      <c r="C112" s="454" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D112" s="454" t="s">
-        <v>1703</v>
-      </c>
       <c r="E112" s="454" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="F112" s="454"/>
       <c r="G112" s="454"/>
       <c r="H112" s="454"/>
       <c r="I112" s="454"/>
       <c r="J112" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K112" s="454"/>
       <c r="L112" s="472"/>
     </row>
     <row r="113" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="453" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="B113" s="454" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C113" s="454" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D113" s="454" t="s">
         <v>1704</v>
       </c>
-      <c r="C113" s="454" t="s">
+      <c r="E113" s="454" t="s">
         <v>1705</v>
-      </c>
-      <c r="D113" s="454" t="s">
-        <v>1706</v>
-      </c>
-      <c r="E113" s="454" t="s">
-        <v>1707</v>
       </c>
       <c r="F113" s="454"/>
       <c r="G113" s="454"/>
       <c r="H113" s="454"/>
       <c r="I113" s="454"/>
       <c r="J113" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K113" s="454"/>
       <c r="L113" s="472"/>
     </row>
     <row r="114" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="453" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="B114" s="454" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C114" s="454" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D114" s="454" t="s">
         <v>1708</v>
       </c>
-      <c r="C114" s="454" t="s">
+      <c r="E114" s="454" t="s">
         <v>1709</v>
-      </c>
-      <c r="D114" s="454" t="s">
-        <v>1710</v>
-      </c>
-      <c r="E114" s="454" t="s">
-        <v>1711</v>
       </c>
       <c r="F114" s="454"/>
       <c r="G114" s="454"/>
       <c r="H114" s="454"/>
       <c r="I114" s="454"/>
       <c r="J114" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K114" s="454"/>
       <c r="L114" s="472"/>
     </row>
     <row r="115" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="453" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="B115" s="454" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C115" s="454" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D115" s="454" t="s">
         <v>1712</v>
       </c>
-      <c r="C115" s="454" t="s">
+      <c r="E115" s="454" t="s">
         <v>1713</v>
-      </c>
-      <c r="D115" s="454" t="s">
-        <v>1714</v>
-      </c>
-      <c r="E115" s="454" t="s">
-        <v>1715</v>
       </c>
       <c r="F115" s="454"/>
       <c r="G115" s="454"/>
       <c r="H115" s="454"/>
       <c r="I115" s="454"/>
       <c r="J115" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K115" s="454"/>
       <c r="L115" s="472"/>
     </row>
     <row r="116" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="453" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="B116" s="454" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C116" s="454" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D116" s="454" t="s">
         <v>1716</v>
       </c>
-      <c r="C116" s="454" t="s">
+      <c r="E116" s="454" t="s">
         <v>1717</v>
-      </c>
-      <c r="D116" s="454" t="s">
-        <v>1718</v>
-      </c>
-      <c r="E116" s="454" t="s">
-        <v>1719</v>
       </c>
       <c r="F116" s="454"/>
       <c r="G116" s="454"/>
       <c r="H116" s="454"/>
       <c r="I116" s="454"/>
       <c r="J116" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K116" s="454"/>
       <c r="L116" s="472"/>
     </row>
     <row r="117" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="453" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="B117" s="454" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C117" s="454" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D117" s="454" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E117" s="454" t="s">
         <v>1720</v>
-      </c>
-      <c r="C117" s="454" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D117" s="454" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E117" s="454" t="s">
-        <v>1722</v>
       </c>
       <c r="F117" s="454"/>
       <c r="G117" s="454"/>
       <c r="H117" s="454"/>
       <c r="I117" s="454"/>
       <c r="J117" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K117" s="454"/>
       <c r="L117" s="472"/>
     </row>
     <row r="118" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="453" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="B118" s="454" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C118" s="454" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D118" s="454" t="s">
         <v>1723</v>
       </c>
-      <c r="C118" s="454" t="s">
+      <c r="E118" s="454" t="s">
         <v>1724</v>
-      </c>
-      <c r="D118" s="454" t="s">
-        <v>1725</v>
-      </c>
-      <c r="E118" s="454" t="s">
-        <v>1726</v>
       </c>
       <c r="F118" s="454"/>
       <c r="G118" s="454"/>
       <c r="H118" s="454"/>
       <c r="I118" s="454"/>
       <c r="J118" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K118" s="454"/>
       <c r="L118" s="472"/>
     </row>
     <row r="119" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="453" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="B119" s="454" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="C119" s="454" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="D119" s="454" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="E119" s="454" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="F119" s="454"/>
       <c r="G119" s="454"/>
       <c r="H119" s="454"/>
       <c r="I119" s="454"/>
       <c r="J119" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K119" s="454"/>
       <c r="L119" s="472"/>
     </row>
     <row r="120" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="453" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="B120" s="454" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C120" s="454" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D120" s="454" t="s">
         <v>1729</v>
       </c>
-      <c r="C120" s="454" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D120" s="454" t="s">
-        <v>1731</v>
-      </c>
       <c r="E120" s="454" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="F120" s="454"/>
       <c r="G120" s="454"/>
       <c r="H120" s="454"/>
       <c r="I120" s="454"/>
       <c r="J120" s="455" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="K120" s="454"/>
       <c r="L120" s="472"/>
     </row>
     <row r="121" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="453" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="B121" s="454" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C121" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D121" s="454" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E121" s="454" t="s">
         <v>1732</v>
-      </c>
-      <c r="C121" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D121" s="454" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E121" s="454" t="s">
-        <v>1734</v>
       </c>
       <c r="F121" s="454"/>
       <c r="G121" s="454"/>
@@ -42648,19 +42689,19 @@
     </row>
     <row r="122" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="453" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="B122" s="454" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C122" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D122" s="454" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E122" s="454" t="s">
         <v>1735</v>
-      </c>
-      <c r="C122" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D122" s="454" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E122" s="454" t="s">
-        <v>1737</v>
       </c>
       <c r="F122" s="454"/>
       <c r="G122" s="454"/>
@@ -42672,19 +42713,19 @@
     </row>
     <row r="123" spans="1:12" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="453" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="B123" s="454" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C123" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D123" s="454" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E123" s="454" t="s">
         <v>1738</v>
-      </c>
-      <c r="C123" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D123" s="454" t="s">
-        <v>1739</v>
-      </c>
-      <c r="E123" s="454" t="s">
-        <v>1740</v>
       </c>
       <c r="F123" s="454"/>
       <c r="G123" s="454"/>
@@ -42696,19 +42737,19 @@
     </row>
     <row r="124" spans="1:12" s="470" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="453" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="B124" s="475" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C124" s="476" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D124" s="477" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E124" s="477" t="s">
         <v>1741</v>
-      </c>
-      <c r="C124" s="476" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D124" s="477" t="s">
-        <v>1742</v>
-      </c>
-      <c r="E124" s="477" t="s">
-        <v>1743</v>
       </c>
       <c r="F124" s="454"/>
       <c r="G124" s="454"/>
@@ -42720,19 +42761,19 @@
     </row>
     <row r="125" spans="1:12" s="470" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="453" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="B125" s="475" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C125" s="476" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D125" s="477" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E125" s="477" t="s">
         <v>1744</v>
-      </c>
-      <c r="C125" s="476" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D125" s="477" t="s">
-        <v>1745</v>
-      </c>
-      <c r="E125" s="477" t="s">
-        <v>1746</v>
       </c>
       <c r="F125" s="454"/>
       <c r="G125" s="454"/>
@@ -42744,19 +42785,19 @@
     </row>
     <row r="126" spans="1:12" s="470" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="453" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="B126" s="475" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C126" s="476" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D126" s="477" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E126" s="477" t="s">
         <v>1747</v>
-      </c>
-      <c r="C126" s="476" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D126" s="477" t="s">
-        <v>1748</v>
-      </c>
-      <c r="E126" s="477" t="s">
-        <v>1749</v>
       </c>
       <c r="F126" s="454"/>
       <c r="G126" s="454"/>
@@ -42768,19 +42809,19 @@
     </row>
     <row r="127" spans="1:12" s="470" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="453" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="B127" s="475" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C127" s="476" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D127" s="477" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E127" s="477" t="s">
         <v>1750</v>
-      </c>
-      <c r="C127" s="476" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D127" s="477" t="s">
-        <v>1751</v>
-      </c>
-      <c r="E127" s="477" t="s">
-        <v>1752</v>
       </c>
       <c r="F127" s="454"/>
       <c r="G127" s="454"/>
@@ -42792,19 +42833,19 @@
     </row>
     <row r="128" spans="1:12" s="470" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="453" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="B128" s="475" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C128" s="476" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D128" s="477" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E128" s="477" t="s">
         <v>1753</v>
-      </c>
-      <c r="C128" s="476" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D128" s="477" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E128" s="477" t="s">
-        <v>1755</v>
       </c>
       <c r="F128" s="454"/>
       <c r="G128" s="454"/>
@@ -42816,19 +42857,19 @@
     </row>
     <row r="129" spans="1:31" s="470" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="453" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="B129" s="475" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="C129" s="476" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D129" s="477" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="E129" s="477" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="F129" s="454"/>
       <c r="G129" s="454"/>
@@ -42840,19 +42881,19 @@
     </row>
     <row r="130" spans="1:31" s="470" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="453" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B130" s="475" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C130" s="476" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D130" s="477" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E130" s="477" t="s">
         <v>1758</v>
-      </c>
-      <c r="C130" s="476" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D130" s="477" t="s">
-        <v>1759</v>
-      </c>
-      <c r="E130" s="477" t="s">
-        <v>1760</v>
       </c>
       <c r="F130" s="454"/>
       <c r="G130" s="454"/>
@@ -42864,19 +42905,19 @@
     </row>
     <row r="131" spans="1:31" s="470" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="453" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="B131" s="475" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C131" s="476" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D131" s="477" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="E131" s="477" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="F131" s="454"/>
       <c r="G131" s="454"/>
@@ -42888,7 +42929,7 @@
     </row>
     <row r="132" spans="1:31" s="469" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="465" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="B132" s="466"/>
       <c r="C132" s="466"/>
@@ -42923,19 +42964,19 @@
     </row>
     <row r="133" spans="1:31" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="453" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="B133" s="454" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C133" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D133" s="454" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E133" s="454" t="s">
         <v>1764</v>
-      </c>
-      <c r="C133" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D133" s="454" t="s">
-        <v>1765</v>
-      </c>
-      <c r="E133" s="454" t="s">
-        <v>1766</v>
       </c>
       <c r="F133" s="454"/>
       <c r="G133" s="454"/>
@@ -42947,19 +42988,19 @@
     </row>
     <row r="134" spans="1:31" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="453" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="B134" s="454" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C134" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D134" s="454" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E134" s="454" t="s">
         <v>1767</v>
-      </c>
-      <c r="C134" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D134" s="454" t="s">
-        <v>1768</v>
-      </c>
-      <c r="E134" s="454" t="s">
-        <v>1769</v>
       </c>
       <c r="F134" s="454"/>
       <c r="G134" s="454"/>
@@ -42971,19 +43012,19 @@
     </row>
     <row r="135" spans="1:31" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="453" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="B135" s="454" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C135" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D135" s="454" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E135" s="454" t="s">
         <v>1770</v>
-      </c>
-      <c r="C135" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D135" s="454" t="s">
-        <v>1771</v>
-      </c>
-      <c r="E135" s="454" t="s">
-        <v>1772</v>
       </c>
       <c r="F135" s="454"/>
       <c r="G135" s="454"/>
@@ -42995,19 +43036,19 @@
     </row>
     <row r="136" spans="1:31" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="453" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="B136" s="454" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C136" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D136" s="454" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E136" s="454" t="s">
         <v>1773</v>
-      </c>
-      <c r="C136" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D136" s="454" t="s">
-        <v>1774</v>
-      </c>
-      <c r="E136" s="454" t="s">
-        <v>1775</v>
       </c>
       <c r="F136" s="454"/>
       <c r="G136" s="454"/>
@@ -43019,19 +43060,19 @@
     </row>
     <row r="137" spans="1:31" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="453" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="B137" s="454" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C137" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D137" s="454" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E137" s="454" t="s">
         <v>1776</v>
-      </c>
-      <c r="C137" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D137" s="454" t="s">
-        <v>1777</v>
-      </c>
-      <c r="E137" s="454" t="s">
-        <v>1778</v>
       </c>
       <c r="F137" s="454"/>
       <c r="G137" s="454"/>
@@ -43043,19 +43084,19 @@
     </row>
     <row r="138" spans="1:31" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="453" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="B138" s="454" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C138" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D138" s="454" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E138" s="454" t="s">
         <v>1779</v>
-      </c>
-      <c r="C138" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D138" s="454" t="s">
-        <v>1780</v>
-      </c>
-      <c r="E138" s="454" t="s">
-        <v>1781</v>
       </c>
       <c r="F138" s="454"/>
       <c r="G138" s="454"/>
@@ -43067,19 +43108,19 @@
     </row>
     <row r="139" spans="1:31" s="470" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="453" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B139" s="454" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C139" s="454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D139" s="454" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E139" s="454" t="s">
         <v>1782</v>
-      </c>
-      <c r="C139" s="454" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D139" s="454" t="s">
-        <v>1783</v>
-      </c>
-      <c r="E139" s="454" t="s">
-        <v>1784</v>
       </c>
       <c r="F139" s="454"/>
       <c r="G139" s="454"/>
@@ -45239,95 +45280,95 @@
       <c r="A1" s="670" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="669" t="s">
+      <c r="B1" s="658" t="s">
         <v>1076</v>
       </c>
-      <c r="C1" s="669" t="s">
+      <c r="C1" s="658" t="s">
         <v>1077</v>
       </c>
-      <c r="D1" s="669" t="s">
+      <c r="D1" s="658" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="669" t="s">
+      <c r="E1" s="658" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="669" t="s">
+      <c r="F1" s="658" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="669" t="s">
+      <c r="G1" s="658" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="669" t="s">
+      <c r="H1" s="658" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="669" t="s">
+      <c r="I1" s="658" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="669" t="s">
+      <c r="J1" s="658" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="669" t="s">
+      <c r="K1" s="658" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="669" t="s">
+      <c r="L1" s="658" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="665" t="s">
+      <c r="M1" s="667" t="s">
         <v>1078</v>
       </c>
-      <c r="N1" s="667" t="s">
+      <c r="N1" s="668" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="666"/>
-      <c r="B2" s="666"/>
-      <c r="C2" s="666"/>
-      <c r="D2" s="666"/>
-      <c r="E2" s="666"/>
-      <c r="F2" s="666"/>
-      <c r="G2" s="666"/>
-      <c r="H2" s="666"/>
-      <c r="I2" s="666"/>
-      <c r="J2" s="666"/>
-      <c r="K2" s="666"/>
-      <c r="L2" s="666"/>
-      <c r="M2" s="666"/>
-      <c r="N2" s="660"/>
+      <c r="A2" s="659"/>
+      <c r="B2" s="659"/>
+      <c r="C2" s="659"/>
+      <c r="D2" s="659"/>
+      <c r="E2" s="659"/>
+      <c r="F2" s="659"/>
+      <c r="G2" s="659"/>
+      <c r="H2" s="659"/>
+      <c r="I2" s="659"/>
+      <c r="J2" s="659"/>
+      <c r="K2" s="659"/>
+      <c r="L2" s="659"/>
+      <c r="M2" s="659"/>
+      <c r="N2" s="662"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="662" t="s">
+      <c r="A3" s="664" t="s">
         <v>1080</v>
       </c>
-      <c r="B3" s="663"/>
-      <c r="C3" s="663"/>
-      <c r="D3" s="663"/>
-      <c r="E3" s="663"/>
-      <c r="F3" s="663"/>
-      <c r="G3" s="663"/>
-      <c r="H3" s="663"/>
-      <c r="I3" s="663"/>
-      <c r="J3" s="663"/>
-      <c r="K3" s="663"/>
-      <c r="L3" s="664"/>
+      <c r="B3" s="665"/>
+      <c r="C3" s="665"/>
+      <c r="D3" s="665"/>
+      <c r="E3" s="665"/>
+      <c r="F3" s="665"/>
+      <c r="G3" s="665"/>
+      <c r="H3" s="665"/>
+      <c r="I3" s="665"/>
+      <c r="J3" s="665"/>
+      <c r="K3" s="665"/>
+      <c r="L3" s="666"/>
       <c r="M3" s="282"/>
       <c r="N3" s="283"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="668" t="s">
+      <c r="A4" s="669" t="s">
         <v>1081</v>
       </c>
-      <c r="B4" s="663"/>
-      <c r="C4" s="663"/>
-      <c r="D4" s="663"/>
-      <c r="E4" s="663"/>
-      <c r="F4" s="663"/>
-      <c r="G4" s="663"/>
-      <c r="H4" s="663"/>
-      <c r="I4" s="663"/>
-      <c r="J4" s="663"/>
-      <c r="K4" s="663"/>
-      <c r="L4" s="664"/>
+      <c r="B4" s="665"/>
+      <c r="C4" s="665"/>
+      <c r="D4" s="665"/>
+      <c r="E4" s="665"/>
+      <c r="F4" s="665"/>
+      <c r="G4" s="665"/>
+      <c r="H4" s="665"/>
+      <c r="I4" s="665"/>
+      <c r="J4" s="665"/>
+      <c r="K4" s="665"/>
+      <c r="L4" s="666"/>
       <c r="M4" s="284"/>
       <c r="N4" s="285"/>
     </row>
@@ -45499,20 +45540,20 @@
       <c r="N10" s="315"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="662" t="s">
+      <c r="A11" s="664" t="s">
         <v>1103</v>
       </c>
-      <c r="B11" s="659"/>
-      <c r="C11" s="659"/>
-      <c r="D11" s="663"/>
-      <c r="E11" s="659"/>
-      <c r="F11" s="663"/>
-      <c r="G11" s="663"/>
-      <c r="H11" s="663"/>
-      <c r="I11" s="663"/>
-      <c r="J11" s="663"/>
-      <c r="K11" s="663"/>
-      <c r="L11" s="664"/>
+      <c r="B11" s="661"/>
+      <c r="C11" s="661"/>
+      <c r="D11" s="665"/>
+      <c r="E11" s="661"/>
+      <c r="F11" s="665"/>
+      <c r="G11" s="665"/>
+      <c r="H11" s="665"/>
+      <c r="I11" s="665"/>
+      <c r="J11" s="665"/>
+      <c r="K11" s="665"/>
+      <c r="L11" s="666"/>
       <c r="M11" s="282"/>
       <c r="N11" s="282"/>
     </row>
@@ -45573,20 +45614,20 @@
       <c r="N13" s="327"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="662" t="s">
+      <c r="A14" s="664" t="s">
         <v>1111</v>
       </c>
-      <c r="B14" s="663"/>
-      <c r="C14" s="663"/>
-      <c r="D14" s="663"/>
-      <c r="E14" s="663"/>
-      <c r="F14" s="663"/>
-      <c r="G14" s="663"/>
-      <c r="H14" s="663"/>
-      <c r="I14" s="663"/>
-      <c r="J14" s="663"/>
-      <c r="K14" s="663"/>
-      <c r="L14" s="664"/>
+      <c r="B14" s="665"/>
+      <c r="C14" s="665"/>
+      <c r="D14" s="665"/>
+      <c r="E14" s="665"/>
+      <c r="F14" s="665"/>
+      <c r="G14" s="665"/>
+      <c r="H14" s="665"/>
+      <c r="I14" s="665"/>
+      <c r="J14" s="665"/>
+      <c r="K14" s="665"/>
+      <c r="L14" s="666"/>
       <c r="M14" s="326"/>
       <c r="N14" s="327"/>
     </row>
@@ -45647,20 +45688,20 @@
       <c r="N16" s="335"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="658" t="s">
+      <c r="A17" s="660" t="s">
         <v>1117</v>
       </c>
-      <c r="B17" s="659"/>
-      <c r="C17" s="659"/>
-      <c r="D17" s="659"/>
-      <c r="E17" s="659"/>
-      <c r="F17" s="659"/>
-      <c r="G17" s="659"/>
-      <c r="H17" s="659"/>
-      <c r="I17" s="659"/>
-      <c r="J17" s="659"/>
-      <c r="K17" s="659"/>
-      <c r="L17" s="660"/>
+      <c r="B17" s="661"/>
+      <c r="C17" s="661"/>
+      <c r="D17" s="661"/>
+      <c r="E17" s="661"/>
+      <c r="F17" s="661"/>
+      <c r="G17" s="661"/>
+      <c r="H17" s="661"/>
+      <c r="I17" s="661"/>
+      <c r="J17" s="661"/>
+      <c r="K17" s="661"/>
+      <c r="L17" s="662"/>
       <c r="M17" s="336"/>
       <c r="N17" s="337"/>
     </row>
@@ -45977,20 +46018,20 @@
       <c r="N30" s="374"/>
     </row>
     <row r="31" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="661" t="s">
+      <c r="A31" s="663" t="s">
         <v>1155</v>
       </c>
-      <c r="B31" s="659"/>
-      <c r="C31" s="659"/>
-      <c r="D31" s="659"/>
-      <c r="E31" s="659"/>
-      <c r="F31" s="659"/>
-      <c r="G31" s="659"/>
-      <c r="H31" s="659"/>
-      <c r="I31" s="659"/>
-      <c r="J31" s="659"/>
-      <c r="K31" s="659"/>
-      <c r="L31" s="660"/>
+      <c r="B31" s="661"/>
+      <c r="C31" s="661"/>
+      <c r="D31" s="661"/>
+      <c r="E31" s="661"/>
+      <c r="F31" s="661"/>
+      <c r="G31" s="661"/>
+      <c r="H31" s="661"/>
+      <c r="I31" s="661"/>
+      <c r="J31" s="661"/>
+      <c r="K31" s="661"/>
+      <c r="L31" s="662"/>
       <c r="M31" s="375"/>
       <c r="N31" s="375"/>
     </row>
@@ -60454,11 +60495,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A17:L17"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="A14:L14"/>
     <mergeCell ref="M1:M2"/>
@@ -60474,6 +60510,11 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -60484,8 +60525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -60576,13 +60617,13 @@
     </row>
     <row r="4" spans="1:12" s="441" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="436" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B4" s="437" t="s">
         <v>1194</v>
       </c>
       <c r="C4" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D4" s="437" t="s">
         <v>1195</v>
@@ -60600,13 +60641,13 @@
     </row>
     <row r="5" spans="1:12" s="441" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="436" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B5" s="437" t="s">
         <v>1197</v>
       </c>
       <c r="C5" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D5" s="437" t="s">
         <v>1198</v>
@@ -60624,13 +60665,13 @@
     </row>
     <row r="6" spans="1:12" s="441" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="436" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B6" s="437" t="s">
         <v>1200</v>
       </c>
       <c r="C6" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D6" s="437" t="s">
         <v>1201</v>
@@ -60648,13 +60689,13 @@
     </row>
     <row r="7" spans="1:12" s="441" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="436" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B7" s="437" t="s">
         <v>1202</v>
       </c>
       <c r="C7" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D7" s="437" t="s">
         <v>1203</v>
@@ -60672,13 +60713,13 @@
     </row>
     <row r="8" spans="1:12" s="441" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="436" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B8" s="437" t="s">
         <v>1204</v>
       </c>
       <c r="C8" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D8" s="437" t="s">
         <v>1205</v>
@@ -60696,13 +60737,13 @@
     </row>
     <row r="9" spans="1:12" s="441" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="436" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B9" s="437" t="s">
         <v>1206</v>
       </c>
       <c r="C9" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D9" s="437" t="s">
         <v>1207</v>
@@ -60720,13 +60761,13 @@
     </row>
     <row r="10" spans="1:12" s="441" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="436" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B10" s="437" t="s">
         <v>1208</v>
       </c>
       <c r="C10" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D10" s="437" t="s">
         <v>1209</v>
@@ -60744,13 +60785,13 @@
     </row>
     <row r="11" spans="1:12" s="441" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="436" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B11" s="437" t="s">
         <v>1210</v>
       </c>
       <c r="C11" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D11" s="437" t="s">
         <v>1211</v>
@@ -60768,13 +60809,13 @@
     </row>
     <row r="12" spans="1:12" s="441" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="436" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B12" s="437" t="s">
         <v>1212</v>
       </c>
       <c r="C12" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D12" s="437" t="s">
         <v>1213</v>
@@ -60808,13 +60849,13 @@
     </row>
     <row r="14" spans="1:12" s="441" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="436" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B14" s="437" t="s">
         <v>1216</v>
       </c>
       <c r="C14" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D14" s="437" t="s">
         <v>1217</v>
@@ -60831,13 +60872,13 @@
     </row>
     <row r="15" spans="1:12" s="441" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="436" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B15" s="437" t="s">
         <v>1219</v>
       </c>
       <c r="C15" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D15" s="437" t="s">
         <v>1220</v>
@@ -60855,13 +60896,13 @@
     </row>
     <row r="16" spans="1:12" s="441" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="436" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B16" s="437" t="s">
         <v>1222</v>
       </c>
       <c r="C16" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D16" s="437" t="s">
         <v>1223</v>
@@ -60879,13 +60920,13 @@
     </row>
     <row r="17" spans="1:12" s="441" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="436" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B17" s="437" t="s">
         <v>1225</v>
       </c>
       <c r="C17" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D17" s="437" t="s">
         <v>1226</v>
@@ -60902,13 +60943,13 @@
     </row>
     <row r="18" spans="1:12" s="441" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="436" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B18" s="437" t="s">
         <v>1228</v>
       </c>
       <c r="C18" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D18" s="437" t="s">
         <v>1229</v>
@@ -60926,13 +60967,13 @@
     </row>
     <row r="19" spans="1:12" s="441" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="436" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B19" s="437" t="s">
         <v>1231</v>
       </c>
       <c r="C19" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D19" s="437" t="s">
         <v>1232</v>
@@ -60950,13 +60991,13 @@
     </row>
     <row r="20" spans="1:12" s="441" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="436" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B20" s="437" t="s">
         <v>1234</v>
       </c>
       <c r="C20" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D20" s="437" t="s">
         <v>1235</v>
@@ -60990,13 +61031,13 @@
     </row>
     <row r="22" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="436" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B22" s="437" t="s">
         <v>1238</v>
       </c>
       <c r="C22" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D22" s="437" t="s">
         <v>1239</v>
@@ -61014,13 +61055,13 @@
     </row>
     <row r="23" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="436" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B23" s="437" t="s">
         <v>1241</v>
       </c>
       <c r="C23" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D23" s="437" t="s">
         <v>1242</v>
@@ -61038,13 +61079,13 @@
     </row>
     <row r="24" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="436" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B24" s="437" t="s">
         <v>1244</v>
       </c>
       <c r="C24" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D24" s="437" t="s">
         <v>1245</v>
@@ -61078,13 +61119,13 @@
     </row>
     <row r="26" spans="1:12" s="441" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="436" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B26" s="437" t="s">
         <v>1248</v>
       </c>
       <c r="C26" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D26" s="437" t="s">
         <v>1249</v>
@@ -61102,13 +61143,13 @@
     </row>
     <row r="27" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="436" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B27" s="437" t="s">
         <v>1251</v>
       </c>
       <c r="C27" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D27" s="437" t="s">
         <v>1252</v>
@@ -61126,13 +61167,13 @@
     </row>
     <row r="28" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="436" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B28" s="437" t="s">
         <v>1254</v>
       </c>
       <c r="C28" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D28" s="437" t="s">
         <v>1255</v>
@@ -61150,13 +61191,13 @@
     </row>
     <row r="29" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="436" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B29" s="437" t="s">
         <v>1257</v>
       </c>
       <c r="C29" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D29" s="437" t="s">
         <v>1258</v>
@@ -61174,19 +61215,19 @@
     </row>
     <row r="30" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="436" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B30" s="437" t="s">
         <v>1260</v>
       </c>
       <c r="C30" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D30" s="437" t="s">
         <v>1261</v>
       </c>
       <c r="E30" s="437" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="F30" s="442"/>
       <c r="G30" s="442"/>
@@ -61198,13 +61239,13 @@
     </row>
     <row r="31" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="436" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B31" s="437" t="s">
         <v>1262</v>
       </c>
       <c r="C31" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D31" s="437" t="s">
         <v>1263</v>
@@ -61222,13 +61263,13 @@
     </row>
     <row r="32" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="436" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B32" s="437" t="s">
         <v>1265</v>
       </c>
       <c r="C32" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D32" s="437" t="s">
         <v>1266</v>
@@ -61246,13 +61287,13 @@
     </row>
     <row r="33" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="436" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B33" s="437" t="s">
         <v>1268</v>
       </c>
       <c r="C33" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D33" s="437" t="s">
         <v>1269</v>
@@ -61270,13 +61311,13 @@
     </row>
     <row r="34" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="436" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B34" s="437" t="s">
         <v>1271</v>
       </c>
       <c r="C34" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D34" s="437" t="s">
         <v>1272</v>
@@ -61294,13 +61335,13 @@
     </row>
     <row r="35" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="436" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B35" s="437" t="s">
         <v>1274</v>
       </c>
       <c r="C35" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D35" s="437" t="s">
         <v>1275</v>
@@ -61318,13 +61359,13 @@
     </row>
     <row r="36" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="436" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B36" s="437" t="s">
         <v>1277</v>
       </c>
       <c r="C36" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D36" s="437" t="s">
         <v>1278</v>
@@ -61342,13 +61383,13 @@
     </row>
     <row r="37" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="436" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B37" s="437" t="s">
         <v>1280</v>
       </c>
       <c r="C37" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D37" s="437" t="s">
         <v>1281</v>
@@ -61382,13 +61423,13 @@
     </row>
     <row r="39" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="436" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B39" s="437" t="s">
         <v>1248</v>
       </c>
       <c r="C39" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D39" s="437" t="s">
         <v>1284</v>
@@ -61406,13 +61447,13 @@
     </row>
     <row r="40" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="436" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B40" s="437" t="s">
         <v>1286</v>
       </c>
       <c r="C40" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D40" s="437" t="s">
         <v>1287</v>
@@ -61446,13 +61487,13 @@
     </row>
     <row r="42" spans="1:12" s="419" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="436" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B42" s="437" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="C42" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D42" s="437" t="s">
         <v>1290</v>
@@ -61470,13 +61511,13 @@
     </row>
     <row r="43" spans="1:12" s="419" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="436" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B43" s="437" t="s">
         <v>1292</v>
       </c>
       <c r="C43" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D43" s="437" t="s">
         <v>1293</v>
@@ -61494,13 +61535,13 @@
     </row>
     <row r="44" spans="1:12" s="419" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="436" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B44" s="437" t="s">
         <v>1295</v>
       </c>
       <c r="C44" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D44" s="437" t="s">
         <v>1296</v>
@@ -61518,13 +61559,13 @@
     </row>
     <row r="45" spans="1:12" s="419" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="436" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B45" s="437" t="s">
         <v>1298</v>
       </c>
       <c r="C45" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D45" s="437" t="s">
         <v>1299</v>
@@ -61558,19 +61599,19 @@
     </row>
     <row r="47" spans="1:12" s="419" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="436" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B47" s="437" t="s">
         <v>1248</v>
       </c>
       <c r="C47" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D47" s="437" t="s">
         <v>1302</v>
       </c>
       <c r="E47" s="437" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="F47" s="442"/>
       <c r="G47" s="442"/>
@@ -61582,19 +61623,19 @@
     </row>
     <row r="48" spans="1:12" s="419" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="436" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B48" s="437" t="s">
         <v>1303</v>
       </c>
       <c r="C48" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D48" s="437" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E48" s="485" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F48" s="442"/>
       <c r="G48" s="442"/>
@@ -61606,13 +61647,13 @@
     </row>
     <row r="49" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="436" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B49" s="437" t="s">
         <v>1304</v>
       </c>
       <c r="C49" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D49" s="437" t="s">
         <v>1305</v>
@@ -61646,13 +61687,13 @@
     </row>
     <row r="51" spans="1:12" s="419" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="436" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B51" s="437" t="s">
         <v>1248</v>
       </c>
       <c r="C51" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D51" s="437" t="s">
         <v>1308</v>
@@ -61670,19 +61711,19 @@
     </row>
     <row r="52" spans="1:12" s="419" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="436" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B52" s="437" t="s">
         <v>1310</v>
       </c>
       <c r="C52" s="438" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="D52" s="437" t="s">
         <v>1311</v>
       </c>
       <c r="E52" s="437" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="F52" s="442"/>
       <c r="G52" s="442"/>
@@ -61710,13 +61751,13 @@
     </row>
     <row r="54" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="436" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B54" s="437" t="s">
         <v>1248</v>
       </c>
       <c r="C54" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D54" s="437" t="s">
         <v>1313</v>
@@ -61734,13 +61775,13 @@
     </row>
     <row r="55" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="436" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B55" s="437" t="s">
         <v>1315</v>
       </c>
       <c r="C55" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D55" s="437" t="s">
         <v>1316</v>
@@ -61774,13 +61815,13 @@
     </row>
     <row r="57" spans="1:12" s="419" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="436" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B57" s="437" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C57" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D57" s="437" t="s">
         <v>1308</v>
@@ -61798,19 +61839,19 @@
     </row>
     <row r="58" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="436" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B58" s="437" t="s">
         <v>1320</v>
       </c>
       <c r="C58" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D58" s="437" t="s">
         <v>1321</v>
       </c>
       <c r="E58" s="486" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="F58" s="442"/>
       <c r="G58" s="442"/>
@@ -61838,19 +61879,19 @@
     </row>
     <row r="60" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="436" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B60" s="437" t="s">
         <v>1248</v>
       </c>
       <c r="C60" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D60" s="437" t="s">
         <v>1323</v>
       </c>
       <c r="E60" s="486" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="F60" s="442"/>
       <c r="G60" s="442"/>
@@ -61862,13 +61903,13 @@
     </row>
     <row r="61" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="436" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B61" s="437" t="s">
         <v>1324</v>
       </c>
       <c r="C61" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D61" s="437" t="s">
         <v>1325</v>
@@ -61886,13 +61927,13 @@
     </row>
     <row r="62" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="436" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B62" s="437" t="s">
         <v>1327</v>
       </c>
       <c r="C62" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D62" s="437" t="s">
         <v>1328</v>
@@ -61910,13 +61951,13 @@
     </row>
     <row r="63" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="436" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B63" s="486" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="C63" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D63" s="437" t="s">
         <v>1330</v>
@@ -61934,13 +61975,13 @@
     </row>
     <row r="64" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="436" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B64" s="437" t="s">
         <v>1332</v>
       </c>
       <c r="C64" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D64" s="437" t="s">
         <v>1333</v>
@@ -61958,13 +61999,13 @@
     </row>
     <row r="65" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="436" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B65" s="437" t="s">
         <v>1335</v>
       </c>
       <c r="C65" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D65" s="437" t="s">
         <v>1336</v>
@@ -61998,19 +62039,19 @@
     </row>
     <row r="67" spans="1:12" s="419" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="436" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B67" s="437" t="s">
         <v>1248</v>
       </c>
       <c r="C67" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D67" s="437" t="s">
         <v>1338</v>
       </c>
       <c r="E67" s="437" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="F67" s="442"/>
       <c r="G67" s="442"/>
@@ -62022,45 +62063,45 @@
     </row>
     <row r="68" spans="1:12" s="415" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="411" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B68" s="412" t="s">
         <v>1339</v>
       </c>
       <c r="C68" s="413" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D68" s="412" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E68" s="412" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="F68" s="414"/>
       <c r="G68" s="414"/>
       <c r="H68" s="414"/>
       <c r="I68" s="414"/>
       <c r="J68" s="416" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="K68" s="414"/>
       <c r="L68" s="414"/>
     </row>
     <row r="69" spans="1:12" s="419" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="436" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B69" s="437" t="s">
         <v>1340</v>
       </c>
       <c r="C69" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D69" s="437" t="s">
         <v>1341</v>
       </c>
       <c r="E69" s="437" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="F69" s="442"/>
       <c r="G69" s="442"/>
@@ -62072,13 +62113,13 @@
     </row>
     <row r="70" spans="1:12" s="419" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="436" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B70" s="437" t="s">
         <v>1342</v>
       </c>
       <c r="C70" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D70" s="437" t="s">
         <v>1343</v>
@@ -62096,13 +62137,13 @@
     </row>
     <row r="71" spans="1:12" s="419" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="436" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B71" s="437" t="s">
         <v>1345</v>
       </c>
       <c r="C71" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D71" s="437" t="s">
         <v>1346</v>
@@ -62136,13 +62177,13 @@
     </row>
     <row r="73" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="436" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B73" s="437" t="s">
         <v>1248</v>
       </c>
       <c r="C73" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D73" s="437" t="s">
         <v>1349</v>
@@ -62160,19 +62201,19 @@
     </row>
     <row r="74" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="436" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B74" s="437" t="s">
         <v>1351</v>
       </c>
       <c r="C74" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D74" s="437" t="s">
         <v>1352</v>
       </c>
       <c r="E74" s="486" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="F74" s="442"/>
       <c r="G74" s="442"/>
@@ -62184,13 +62225,13 @@
     </row>
     <row r="75" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="436" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B75" s="437" t="s">
         <v>1353</v>
       </c>
       <c r="C75" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D75" s="437" t="s">
         <v>1354</v>
@@ -62224,13 +62265,13 @@
     </row>
     <row r="77" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="436" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B77" s="437" t="s">
         <v>1248</v>
       </c>
       <c r="C77" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D77" s="437" t="s">
         <v>1357</v>
@@ -62248,13 +62289,13 @@
     </row>
     <row r="78" spans="1:12" s="419" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="436" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B78" s="437" t="s">
         <v>1359</v>
       </c>
       <c r="C78" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D78" s="437" t="s">
         <v>1360</v>
@@ -62288,13 +62329,13 @@
     </row>
     <row r="80" spans="1:12" s="419" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="436" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B80" s="437" t="s">
         <v>1248</v>
       </c>
       <c r="C80" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D80" s="437" t="s">
         <v>1363</v>
@@ -62312,13 +62353,13 @@
     </row>
     <row r="81" spans="1:12" s="419" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="436" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B81" s="437" t="s">
         <v>1365</v>
       </c>
       <c r="C81" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D81" s="437" t="s">
         <v>1366</v>
@@ -62352,13 +62393,13 @@
     </row>
     <row r="83" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="436" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B83" s="437" t="s">
         <v>1248</v>
       </c>
       <c r="C83" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D83" s="437" t="s">
         <v>1369</v>
@@ -62374,45 +62415,45 @@
       <c r="K83" s="442"/>
       <c r="L83" s="442"/>
     </row>
-    <row r="84" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="436" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B84" s="437" t="s">
+    <row r="84" spans="1:12" s="491" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="537" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B84" s="532" t="s">
         <v>1371</v>
       </c>
-      <c r="C84" s="438" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D84" s="437" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E84" s="437" t="s">
-        <v>1373</v>
-      </c>
-      <c r="F84" s="442"/>
-      <c r="G84" s="442"/>
-      <c r="H84" s="442"/>
-      <c r="I84" s="442"/>
-      <c r="J84" s="442"/>
-      <c r="K84" s="442"/>
-      <c r="L84" s="442"/>
+      <c r="C84" s="558" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D84" s="532" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E84" s="532" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F84" s="559"/>
+      <c r="G84" s="559"/>
+      <c r="H84" s="559"/>
+      <c r="I84" s="559"/>
+      <c r="J84" s="559"/>
+      <c r="K84" s="559"/>
+      <c r="L84" s="559"/>
     </row>
     <row r="85" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="436" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B85" s="437" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C85" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D85" s="437" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="E85" s="437" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="F85" s="442"/>
       <c r="G85" s="442"/>
@@ -62424,19 +62465,19 @@
     </row>
     <row r="86" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="436" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B86" s="437" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C86" s="438" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D86" s="437" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E86" s="437" t="s">
         <v>1376</v>
-      </c>
-      <c r="C86" s="438" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D86" s="437" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E86" s="437" t="s">
-        <v>1378</v>
       </c>
       <c r="F86" s="442"/>
       <c r="G86" s="442"/>
@@ -62448,19 +62489,19 @@
     </row>
     <row r="87" spans="1:12" s="419" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="436" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B87" s="437" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C87" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D87" s="437" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E87" s="437" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="F87" s="442"/>
       <c r="G87" s="442"/>
@@ -62472,7 +62513,7 @@
     </row>
     <row r="88" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="443" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B88" s="444"/>
       <c r="C88" s="444"/>
@@ -62488,19 +62529,19 @@
     </row>
     <row r="89" spans="1:12" s="419" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="436" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B89" s="437" t="s">
         <v>1248</v>
       </c>
       <c r="C89" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D89" s="437" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E89" s="437" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F89" s="442"/>
       <c r="G89" s="442"/>
@@ -62512,19 +62553,19 @@
     </row>
     <row r="90" spans="1:12" s="419" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="436" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B90" s="437" t="s">
         <v>1248</v>
       </c>
       <c r="C90" s="438" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D90" s="437" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="E90" s="437" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F90" s="442"/>
       <c r="G90" s="442"/>
@@ -62552,19 +62593,19 @@
     </row>
     <row r="92" spans="1:12" s="491" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A92" s="537" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="B92" s="532" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C92" s="558" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D92" s="532" t="s">
         <v>2274</v>
       </c>
-      <c r="C92" s="558" t="s">
+      <c r="E92" s="532" t="s">
         <v>2275</v>
-      </c>
-      <c r="D92" s="532" t="s">
-        <v>2276</v>
-      </c>
-      <c r="E92" s="532" t="s">
-        <v>2277</v>
       </c>
       <c r="F92" s="559"/>
       <c r="G92" s="559"/>
@@ -62590,19 +62631,19 @@
     </row>
     <row r="94" spans="1:12" s="424" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="420" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B94" s="421" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C94" s="422" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D94" s="421" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E94" s="421" t="s">
         <v>1526</v>
-      </c>
-      <c r="C94" s="422" t="s">
-        <v>1881</v>
-      </c>
-      <c r="D94" s="421" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E94" s="421" t="s">
-        <v>1528</v>
       </c>
       <c r="F94" s="423"/>
       <c r="G94" s="423"/>
@@ -62614,19 +62655,19 @@
     </row>
     <row r="95" spans="1:12" s="429" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="420" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B95" s="425" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C95" s="426" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D95" s="425" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E95" s="425" t="s">
         <v>1529</v>
-      </c>
-      <c r="C95" s="426" t="s">
-        <v>1882</v>
-      </c>
-      <c r="D95" s="425" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E95" s="425" t="s">
-        <v>1531</v>
       </c>
       <c r="F95" s="427"/>
       <c r="G95" s="427"/>
@@ -62638,19 +62679,19 @@
     </row>
     <row r="96" spans="1:12" s="424" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="420" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B96" s="421" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C96" s="422" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D96" s="421" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E96" s="421" t="s">
         <v>1532</v>
-      </c>
-      <c r="C96" s="422" t="s">
-        <v>1881</v>
-      </c>
-      <c r="D96" s="421" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E96" s="421" t="s">
-        <v>1534</v>
       </c>
       <c r="F96" s="423"/>
       <c r="G96" s="423"/>
@@ -62662,19 +62703,19 @@
     </row>
     <row r="97" spans="1:12" s="424" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="420" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B97" s="430" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C97" s="431" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D97" s="430" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E97" s="430" t="s">
         <v>1535</v>
-      </c>
-      <c r="C97" s="431" t="s">
-        <v>1883</v>
-      </c>
-      <c r="D97" s="430" t="s">
-        <v>1536</v>
-      </c>
-      <c r="E97" s="430" t="s">
-        <v>1537</v>
       </c>
       <c r="F97" s="432"/>
       <c r="G97" s="432"/>
@@ -62686,19 +62727,19 @@
     </row>
     <row r="98" spans="1:12" s="424" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="420" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B98" s="430" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C98" s="431" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D98" s="430" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E98" s="430" t="s">
         <v>1538</v>
-      </c>
-      <c r="C98" s="431" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D98" s="430" t="s">
-        <v>1539</v>
-      </c>
-      <c r="E98" s="430" t="s">
-        <v>1540</v>
       </c>
       <c r="F98" s="432"/>
       <c r="G98" s="432"/>
@@ -62710,7 +62751,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="671" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B99" s="671"/>
       <c r="C99" s="671"/>
@@ -62726,19 +62767,19 @@
     </row>
     <row r="100" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="401" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B100" s="402" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C100" s="403" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D100" s="402" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E100" s="402" t="s">
         <v>1386</v>
-      </c>
-      <c r="C100" s="403" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D100" s="402" t="s">
-        <v>1387</v>
-      </c>
-      <c r="E100" s="402" t="s">
-        <v>1388</v>
       </c>
       <c r="F100" s="207"/>
       <c r="G100" s="207"/>
@@ -62750,19 +62791,19 @@
     </row>
     <row r="101" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="401" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B101" s="402" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C101" s="403" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D101" s="402" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E101" s="402" t="s">
         <v>1389</v>
-      </c>
-      <c r="C101" s="403" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D101" s="402" t="s">
-        <v>1390</v>
-      </c>
-      <c r="E101" s="402" t="s">
-        <v>1391</v>
       </c>
       <c r="F101" s="209"/>
       <c r="G101" s="207"/>
@@ -62774,19 +62815,19 @@
     </row>
     <row r="102" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="401" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B102" s="402" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C102" s="403" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D102" s="402" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="E102" s="402" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F102" s="207"/>
       <c r="G102" s="207"/>
@@ -62798,19 +62839,19 @@
     </row>
     <row r="103" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="401" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B103" s="402" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C103" s="403" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D103" s="402" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E103" s="402" t="s">
         <v>1394</v>
-      </c>
-      <c r="C103" s="403" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D103" s="402" t="s">
-        <v>1395</v>
-      </c>
-      <c r="E103" s="402" t="s">
-        <v>1396</v>
       </c>
       <c r="F103" s="207"/>
       <c r="G103" s="207"/>
@@ -62822,19 +62863,19 @@
     </row>
     <row r="104" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="401" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B104" s="402" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C104" s="403" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D104" s="402" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="E104" s="402" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="F104" s="207"/>
       <c r="G104" s="207"/>
@@ -62846,7 +62887,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="404" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B105" s="207"/>
       <c r="C105" s="207"/>
@@ -62862,19 +62903,19 @@
     </row>
     <row r="106" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="401" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B106" s="402" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C106" s="403" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D106" s="402" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E106" s="402" t="s">
         <v>1400</v>
-      </c>
-      <c r="C106" s="403" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D106" s="402" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E106" s="402" t="s">
-        <v>1402</v>
       </c>
       <c r="F106" s="402"/>
       <c r="G106" s="207"/>
@@ -62886,19 +62927,19 @@
     </row>
     <row r="107" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="401" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B107" s="402" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C107" s="403" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D107" s="402" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E107" s="405" t="s">
         <v>1403</v>
-      </c>
-      <c r="C107" s="403" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D107" s="402" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E107" s="405" t="s">
-        <v>1405</v>
       </c>
       <c r="F107" s="207"/>
       <c r="G107" s="207"/>
@@ -62910,19 +62951,19 @@
     </row>
     <row r="108" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="401" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B108" s="402" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C108" s="403" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D108" s="402" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E108" s="405" t="s">
         <v>1406</v>
-      </c>
-      <c r="C108" s="403" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D108" s="402" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E108" s="405" t="s">
-        <v>1408</v>
       </c>
       <c r="F108" s="207"/>
       <c r="G108" s="207"/>
@@ -62934,19 +62975,19 @@
     </row>
     <row r="109" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="401" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B109" s="402" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C109" s="403" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D109" s="402" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E109" s="405" t="s">
         <v>1409</v>
-      </c>
-      <c r="C109" s="403" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D109" s="402" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E109" s="405" t="s">
-        <v>1411</v>
       </c>
       <c r="F109" s="207"/>
       <c r="G109" s="207"/>
@@ -62997,10 +63038,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="641" t="s">
+      <c r="A1" s="605" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="641"/>
+      <c r="B1" s="605"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -63035,250 +63076,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="642" t="s">
+      <c r="A2" s="606" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="642" t="s">
+      <c r="B2" s="606" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="642" t="s">
+      <c r="C2" s="606" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="645" t="s">
+      <c r="D2" s="609" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="645"/>
-      <c r="F2" s="645"/>
-      <c r="G2" s="611" t="s">
+      <c r="E2" s="609"/>
+      <c r="F2" s="609"/>
+      <c r="G2" s="618" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="612"/>
-      <c r="I2" s="612"/>
-      <c r="J2" s="617"/>
-      <c r="K2" s="605" t="s">
+      <c r="H2" s="619"/>
+      <c r="I2" s="619"/>
+      <c r="J2" s="620"/>
+      <c r="K2" s="636" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="605"/>
-      <c r="M2" s="611" t="s">
+      <c r="L2" s="636"/>
+      <c r="M2" s="618" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="612"/>
-      <c r="O2" s="617"/>
-      <c r="P2" s="611" t="s">
+      <c r="N2" s="619"/>
+      <c r="O2" s="620"/>
+      <c r="P2" s="618" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="617"/>
-      <c r="R2" s="611" t="s">
+      <c r="Q2" s="620"/>
+      <c r="R2" s="618" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="612"/>
-      <c r="T2" s="611" t="s">
+      <c r="S2" s="619"/>
+      <c r="T2" s="618" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="612"/>
-      <c r="V2" s="612"/>
-      <c r="W2" s="612"/>
-      <c r="X2" s="617"/>
-      <c r="Y2" s="611" t="s">
+      <c r="U2" s="619"/>
+      <c r="V2" s="619"/>
+      <c r="W2" s="619"/>
+      <c r="X2" s="620"/>
+      <c r="Y2" s="618" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="612"/>
-      <c r="AA2" s="612"/>
-      <c r="AB2" s="617"/>
-      <c r="AC2" s="626" t="s">
+      <c r="Z2" s="619"/>
+      <c r="AA2" s="619"/>
+      <c r="AB2" s="620"/>
+      <c r="AC2" s="612" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="627"/>
-      <c r="AE2" s="627"/>
-      <c r="AF2" s="636"/>
-      <c r="AG2" s="626" t="s">
+      <c r="AD2" s="613"/>
+      <c r="AE2" s="613"/>
+      <c r="AF2" s="628"/>
+      <c r="AG2" s="612" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="627"/>
-      <c r="AI2" s="627"/>
+      <c r="AH2" s="613"/>
+      <c r="AI2" s="613"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="643"/>
-      <c r="B3" s="643"/>
-      <c r="C3" s="643"/>
-      <c r="D3" s="645"/>
-      <c r="E3" s="645"/>
-      <c r="F3" s="645"/>
-      <c r="G3" s="613"/>
-      <c r="H3" s="614"/>
-      <c r="I3" s="614"/>
-      <c r="J3" s="618"/>
-      <c r="K3" s="605" t="s">
+      <c r="A3" s="607"/>
+      <c r="B3" s="607"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="609"/>
+      <c r="F3" s="609"/>
+      <c r="G3" s="614"/>
+      <c r="H3" s="615"/>
+      <c r="I3" s="615"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="636" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="605"/>
-      <c r="M3" s="613"/>
-      <c r="N3" s="614"/>
-      <c r="O3" s="618"/>
-      <c r="P3" s="613"/>
-      <c r="Q3" s="618"/>
-      <c r="R3" s="613"/>
-      <c r="S3" s="614"/>
-      <c r="T3" s="613"/>
-      <c r="U3" s="614"/>
-      <c r="V3" s="614"/>
-      <c r="W3" s="614"/>
-      <c r="X3" s="618"/>
-      <c r="Y3" s="613"/>
-      <c r="Z3" s="614"/>
-      <c r="AA3" s="614"/>
-      <c r="AB3" s="618"/>
-      <c r="AC3" s="613"/>
-      <c r="AD3" s="614"/>
-      <c r="AE3" s="614"/>
-      <c r="AF3" s="618"/>
-      <c r="AG3" s="613"/>
-      <c r="AH3" s="614"/>
-      <c r="AI3" s="614"/>
+      <c r="L3" s="636"/>
+      <c r="M3" s="614"/>
+      <c r="N3" s="615"/>
+      <c r="O3" s="621"/>
+      <c r="P3" s="614"/>
+      <c r="Q3" s="621"/>
+      <c r="R3" s="614"/>
+      <c r="S3" s="615"/>
+      <c r="T3" s="614"/>
+      <c r="U3" s="615"/>
+      <c r="V3" s="615"/>
+      <c r="W3" s="615"/>
+      <c r="X3" s="621"/>
+      <c r="Y3" s="614"/>
+      <c r="Z3" s="615"/>
+      <c r="AA3" s="615"/>
+      <c r="AB3" s="621"/>
+      <c r="AC3" s="614"/>
+      <c r="AD3" s="615"/>
+      <c r="AE3" s="615"/>
+      <c r="AF3" s="621"/>
+      <c r="AG3" s="614"/>
+      <c r="AH3" s="615"/>
+      <c r="AI3" s="615"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="643"/>
-      <c r="B4" s="643"/>
-      <c r="C4" s="643"/>
-      <c r="D4" s="624" t="s">
+      <c r="A4" s="607"/>
+      <c r="B4" s="607"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="610" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="624" t="s">
+      <c r="E4" s="610" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="624" t="s">
+      <c r="F4" s="610" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="622" t="s">
+      <c r="G4" s="634" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="622" t="s">
+      <c r="H4" s="634" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="622" t="s">
+      <c r="I4" s="634" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="622" t="s">
+      <c r="J4" s="634" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="606" t="s">
+      <c r="K4" s="637" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="606" t="s">
+      <c r="L4" s="637" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="608" t="s">
+      <c r="M4" s="639" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="608" t="s">
+      <c r="N4" s="639" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="619" t="s">
+      <c r="O4" s="643" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="620" t="s">
+      <c r="P4" s="644" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="620" t="s">
+      <c r="Q4" s="644" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="615" t="s">
+      <c r="R4" s="641" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="615" t="s">
+      <c r="S4" s="641" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="628" t="s">
+      <c r="T4" s="616" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="639" t="s">
+      <c r="U4" s="632" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="640"/>
-      <c r="W4" s="610" t="s">
+      <c r="V4" s="633"/>
+      <c r="W4" s="631" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="610" t="s">
+      <c r="X4" s="631" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="630" t="s">
+      <c r="Y4" s="622" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="630" t="s">
+      <c r="Z4" s="622" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="634" t="s">
+      <c r="AA4" s="626" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="635"/>
-      <c r="AC4" s="632" t="s">
+      <c r="AB4" s="627"/>
+      <c r="AC4" s="624" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="632" t="s">
+      <c r="AD4" s="624" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="637" t="s">
+      <c r="AE4" s="629" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="638"/>
-      <c r="AG4" s="624" t="s">
+      <c r="AF4" s="630"/>
+      <c r="AG4" s="610" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="624" t="s">
+      <c r="AH4" s="610" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="624" t="s">
+      <c r="AI4" s="610" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="644"/>
-      <c r="B5" s="644"/>
-      <c r="C5" s="644"/>
-      <c r="D5" s="625"/>
-      <c r="E5" s="625"/>
-      <c r="F5" s="625"/>
-      <c r="G5" s="623"/>
-      <c r="H5" s="623"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="623"/>
-      <c r="K5" s="607"/>
-      <c r="L5" s="607"/>
-      <c r="M5" s="609"/>
-      <c r="N5" s="609"/>
-      <c r="O5" s="609"/>
-      <c r="P5" s="621"/>
-      <c r="Q5" s="621"/>
-      <c r="R5" s="616"/>
-      <c r="S5" s="616"/>
-      <c r="T5" s="629"/>
+      <c r="A5" s="608"/>
+      <c r="B5" s="608"/>
+      <c r="C5" s="608"/>
+      <c r="D5" s="611"/>
+      <c r="E5" s="611"/>
+      <c r="F5" s="611"/>
+      <c r="G5" s="635"/>
+      <c r="H5" s="635"/>
+      <c r="I5" s="635"/>
+      <c r="J5" s="635"/>
+      <c r="K5" s="638"/>
+      <c r="L5" s="638"/>
+      <c r="M5" s="640"/>
+      <c r="N5" s="640"/>
+      <c r="O5" s="640"/>
+      <c r="P5" s="645"/>
+      <c r="Q5" s="645"/>
+      <c r="R5" s="642"/>
+      <c r="S5" s="642"/>
+      <c r="T5" s="617"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="610"/>
-      <c r="X5" s="610"/>
-      <c r="Y5" s="631"/>
-      <c r="Z5" s="631"/>
+      <c r="W5" s="631"/>
+      <c r="X5" s="631"/>
+      <c r="Y5" s="623"/>
+      <c r="Z5" s="623"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="633"/>
-      <c r="AD5" s="633"/>
+      <c r="AC5" s="625"/>
+      <c r="AD5" s="625"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="625"/>
-      <c r="AH5" s="625"/>
-      <c r="AI5" s="625"/>
+      <c r="AG5" s="611"/>
+      <c r="AH5" s="611"/>
+      <c r="AI5" s="611"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -63541,14 +63582,26 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -63565,26 +63618,14 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -63637,7 +63678,7 @@
     </row>
     <row r="2" spans="1:8" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="64"/>
-      <c r="B2" s="647" t="s">
+      <c r="B2" s="650" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="72" t="s">
@@ -63650,7 +63691,7 @@
     </row>
     <row r="3" spans="1:8" s="65" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A3" s="64"/>
-      <c r="B3" s="648"/>
+      <c r="B3" s="651"/>
       <c r="C3" s="72" t="s">
         <v>145</v>
       </c>
@@ -63661,7 +63702,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
-      <c r="B4" s="652" t="s">
+      <c r="B4" s="646" t="s">
         <v>85</v>
       </c>
       <c r="C4" s="71" t="s">
@@ -63674,7 +63715,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
-      <c r="B5" s="654"/>
+      <c r="B5" s="647"/>
       <c r="C5" s="71" t="s">
         <v>141</v>
       </c>
@@ -63685,7 +63726,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="66"/>
-      <c r="B6" s="654"/>
+      <c r="B6" s="647"/>
       <c r="C6" s="71" t="s">
         <v>140</v>
       </c>
@@ -63696,7 +63737,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="66"/>
-      <c r="B7" s="654"/>
+      <c r="B7" s="647"/>
       <c r="C7" s="71" t="s">
         <v>142</v>
       </c>
@@ -63707,7 +63748,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="66"/>
-      <c r="B8" s="653"/>
+      <c r="B8" s="648"/>
       <c r="C8" s="71" t="s">
         <v>146</v>
       </c>
@@ -63718,7 +63759,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="66"/>
-      <c r="B9" s="652" t="s">
+      <c r="B9" s="646" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="67" t="s">
@@ -63731,8 +63772,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
-      <c r="B10" s="654"/>
-      <c r="C10" s="652" t="s">
+      <c r="B10" s="647"/>
+      <c r="C10" s="646" t="s">
         <v>147</v>
       </c>
       <c r="D10" s="70" t="s">
@@ -63744,8 +63785,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="66"/>
-      <c r="B11" s="654"/>
-      <c r="C11" s="653"/>
+      <c r="B11" s="647"/>
+      <c r="C11" s="648"/>
       <c r="D11" s="70" t="s">
         <v>149</v>
       </c>
@@ -63755,8 +63796,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="66"/>
-      <c r="B12" s="654"/>
-      <c r="C12" s="652" t="s">
+      <c r="B12" s="647"/>
+      <c r="C12" s="646" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="163" t="s">
@@ -63770,9 +63811,9 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="66"/>
-      <c r="B13" s="654"/>
-      <c r="C13" s="654"/>
-      <c r="D13" s="652" t="s">
+      <c r="B13" s="647"/>
+      <c r="C13" s="647"/>
+      <c r="D13" s="646" t="s">
         <v>116</v>
       </c>
       <c r="E13" s="66" t="s">
@@ -63783,9 +63824,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="66"/>
-      <c r="B14" s="654"/>
-      <c r="C14" s="654"/>
-      <c r="D14" s="654"/>
+      <c r="B14" s="647"/>
+      <c r="C14" s="647"/>
+      <c r="D14" s="647"/>
       <c r="E14" s="66" t="s">
         <v>120</v>
       </c>
@@ -63794,9 +63835,9 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="66"/>
-      <c r="B15" s="654"/>
-      <c r="C15" s="654"/>
-      <c r="D15" s="654"/>
+      <c r="B15" s="647"/>
+      <c r="C15" s="647"/>
+      <c r="D15" s="647"/>
       <c r="E15" s="66" t="s">
         <v>121</v>
       </c>
@@ -63805,9 +63846,9 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="66"/>
-      <c r="B16" s="654"/>
-      <c r="C16" s="654"/>
-      <c r="D16" s="654"/>
+      <c r="B16" s="647"/>
+      <c r="C16" s="647"/>
+      <c r="D16" s="647"/>
       <c r="E16" s="66" t="s">
         <v>122</v>
       </c>
@@ -63816,9 +63857,9 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="66"/>
-      <c r="B17" s="654"/>
-      <c r="C17" s="654"/>
-      <c r="D17" s="653"/>
+      <c r="B17" s="647"/>
+      <c r="C17" s="647"/>
+      <c r="D17" s="648"/>
       <c r="E17" s="66" t="s">
         <v>123</v>
       </c>
@@ -63827,8 +63868,8 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="66"/>
-      <c r="B18" s="654"/>
-      <c r="C18" s="654"/>
+      <c r="B18" s="647"/>
+      <c r="C18" s="647"/>
       <c r="D18" s="70" t="s">
         <v>117</v>
       </c>
@@ -63840,9 +63881,9 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
-      <c r="B19" s="654"/>
-      <c r="C19" s="654"/>
-      <c r="D19" s="652" t="s">
+      <c r="B19" s="647"/>
+      <c r="C19" s="647"/>
+      <c r="D19" s="646" t="s">
         <v>118</v>
       </c>
       <c r="E19" s="66" t="s">
@@ -63853,9 +63894,9 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="66"/>
-      <c r="B20" s="654"/>
-      <c r="C20" s="653"/>
-      <c r="D20" s="653"/>
+      <c r="B20" s="647"/>
+      <c r="C20" s="648"/>
+      <c r="D20" s="648"/>
       <c r="E20" s="66" t="s">
         <v>123</v>
       </c>
@@ -63864,11 +63905,11 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="66"/>
-      <c r="B21" s="654"/>
-      <c r="C21" s="652" t="s">
+      <c r="B21" s="647"/>
+      <c r="C21" s="646" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="652" t="s">
+      <c r="D21" s="646" t="s">
         <v>118</v>
       </c>
       <c r="E21" s="66" t="s">
@@ -63879,9 +63920,9 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="66"/>
-      <c r="B22" s="654"/>
-      <c r="C22" s="654"/>
-      <c r="D22" s="653"/>
+      <c r="B22" s="647"/>
+      <c r="C22" s="647"/>
+      <c r="D22" s="648"/>
       <c r="E22" s="66" t="s">
         <v>128</v>
       </c>
@@ -63890,9 +63931,9 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="66"/>
-      <c r="B23" s="654"/>
-      <c r="C23" s="654"/>
-      <c r="D23" s="652" t="s">
+      <c r="B23" s="647"/>
+      <c r="C23" s="647"/>
+      <c r="D23" s="646" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="66" t="s">
@@ -63903,9 +63944,9 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="66"/>
-      <c r="B24" s="654"/>
-      <c r="C24" s="654"/>
-      <c r="D24" s="654"/>
+      <c r="B24" s="647"/>
+      <c r="C24" s="647"/>
+      <c r="D24" s="647"/>
       <c r="E24" s="66" t="s">
         <v>130</v>
       </c>
@@ -63914,9 +63955,9 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="66"/>
-      <c r="B25" s="654"/>
-      <c r="C25" s="654"/>
-      <c r="D25" s="653"/>
+      <c r="B25" s="647"/>
+      <c r="C25" s="647"/>
+      <c r="D25" s="648"/>
       <c r="E25" s="66" t="s">
         <v>131</v>
       </c>
@@ -63925,8 +63966,8 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="66"/>
-      <c r="B26" s="654"/>
-      <c r="C26" s="653"/>
+      <c r="B26" s="647"/>
+      <c r="C26" s="648"/>
       <c r="D26" s="70" t="s">
         <v>116</v>
       </c>
@@ -63938,8 +63979,8 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="66"/>
-      <c r="B27" s="654"/>
-      <c r="C27" s="649" t="s">
+      <c r="B27" s="647"/>
+      <c r="C27" s="652" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="163" t="s">
@@ -63954,8 +63995,8 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="66"/>
-      <c r="B28" s="654"/>
-      <c r="C28" s="650"/>
+      <c r="B28" s="647"/>
+      <c r="C28" s="653"/>
       <c r="D28" s="163" t="s">
         <v>134</v>
       </c>
@@ -63968,8 +64009,8 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="66"/>
-      <c r="B29" s="654"/>
-      <c r="C29" s="651"/>
+      <c r="B29" s="647"/>
+      <c r="C29" s="654"/>
       <c r="D29" s="163" t="s">
         <v>135</v>
       </c>
@@ -63982,7 +64023,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="66"/>
-      <c r="B30" s="654"/>
+      <c r="B30" s="647"/>
       <c r="C30" s="70" t="s">
         <v>74</v>
       </c>
@@ -63993,7 +64034,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="66"/>
-      <c r="B31" s="654"/>
+      <c r="B31" s="647"/>
       <c r="C31" s="67" t="s">
         <v>95</v>
       </c>
@@ -64004,7 +64045,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="66"/>
-      <c r="B32" s="654"/>
+      <c r="B32" s="647"/>
       <c r="C32" s="70" t="s">
         <v>96</v>
       </c>
@@ -64015,8 +64056,8 @@
     </row>
     <row r="33" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="66"/>
-      <c r="B33" s="654"/>
-      <c r="C33" s="652" t="s">
+      <c r="B33" s="647"/>
+      <c r="C33" s="646" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="70" t="s">
@@ -64028,8 +64069,8 @@
     </row>
     <row r="34" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="66"/>
-      <c r="B34" s="654"/>
-      <c r="C34" s="653"/>
+      <c r="B34" s="647"/>
+      <c r="C34" s="648"/>
       <c r="D34" s="70" t="s">
         <v>152</v>
       </c>
@@ -64039,7 +64080,7 @@
     </row>
     <row r="35" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A35" s="66"/>
-      <c r="B35" s="653"/>
+      <c r="B35" s="648"/>
       <c r="C35" s="70" t="s">
         <v>98</v>
       </c>
@@ -64053,7 +64094,7 @@
     </row>
     <row r="36" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A36" s="66"/>
-      <c r="B36" s="652" t="s">
+      <c r="B36" s="646" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="67" t="s">
@@ -64066,7 +64107,7 @@
     </row>
     <row r="37" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A37" s="66"/>
-      <c r="B37" s="654"/>
+      <c r="B37" s="647"/>
       <c r="C37" s="70" t="s">
         <v>99</v>
       </c>
@@ -64077,7 +64118,7 @@
     </row>
     <row r="38" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A38" s="66"/>
-      <c r="B38" s="654"/>
+      <c r="B38" s="647"/>
       <c r="C38" s="70" t="s">
         <v>100</v>
       </c>
@@ -64088,7 +64129,7 @@
     </row>
     <row r="39" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A39" s="66"/>
-      <c r="B39" s="653"/>
+      <c r="B39" s="648"/>
       <c r="C39" s="70" t="s">
         <v>101</v>
       </c>
@@ -64102,7 +64143,7 @@
     </row>
     <row r="40" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A40" s="66"/>
-      <c r="B40" s="652" t="s">
+      <c r="B40" s="646" t="s">
         <v>88</v>
       </c>
       <c r="C40" s="67" t="s">
@@ -64115,8 +64156,8 @@
     </row>
     <row r="41" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A41" s="66"/>
-      <c r="B41" s="654"/>
-      <c r="C41" s="652" t="s">
+      <c r="B41" s="647"/>
+      <c r="C41" s="646" t="s">
         <v>102</v>
       </c>
       <c r="D41" s="70" t="s">
@@ -64128,8 +64169,8 @@
     </row>
     <row r="42" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A42" s="66"/>
-      <c r="B42" s="654"/>
-      <c r="C42" s="653"/>
+      <c r="B42" s="647"/>
+      <c r="C42" s="648"/>
       <c r="D42" s="70" t="s">
         <v>136</v>
       </c>
@@ -64139,7 +64180,7 @@
     </row>
     <row r="43" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A43" s="66"/>
-      <c r="B43" s="653"/>
+      <c r="B43" s="648"/>
       <c r="C43" s="70" t="s">
         <v>103</v>
       </c>
@@ -64150,7 +64191,7 @@
     </row>
     <row r="44" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A44" s="66"/>
-      <c r="B44" s="652" t="s">
+      <c r="B44" s="646" t="s">
         <v>89</v>
       </c>
       <c r="C44" s="67" t="s">
@@ -64164,7 +64205,7 @@
     </row>
     <row r="45" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A45" s="66"/>
-      <c r="B45" s="654"/>
+      <c r="B45" s="647"/>
       <c r="C45" s="70" t="s">
         <v>104</v>
       </c>
@@ -64175,7 +64216,7 @@
     </row>
     <row r="46" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A46" s="66"/>
-      <c r="B46" s="654"/>
+      <c r="B46" s="647"/>
       <c r="C46" s="70" t="s">
         <v>105</v>
       </c>
@@ -64186,7 +64227,7 @@
     </row>
     <row r="47" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A47" s="66"/>
-      <c r="B47" s="654"/>
+      <c r="B47" s="647"/>
       <c r="C47" s="70" t="s">
         <v>106</v>
       </c>
@@ -64197,7 +64238,7 @@
     </row>
     <row r="48" spans="1:8 16384:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="66"/>
-      <c r="B48" s="653"/>
+      <c r="B48" s="648"/>
       <c r="C48" s="70" t="s">
         <v>107</v>
       </c>
@@ -64255,10 +64296,10 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="66"/>
       <c r="B53" s="73"/>
-      <c r="C53" s="652" t="s">
+      <c r="C53" s="646" t="s">
         <v>171</v>
       </c>
-      <c r="D53" s="652" t="s">
+      <c r="D53" s="646" t="s">
         <v>178</v>
       </c>
       <c r="E53" s="66" t="s">
@@ -64270,8 +64311,8 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="66"/>
       <c r="B54" s="73"/>
-      <c r="C54" s="654"/>
-      <c r="D54" s="654"/>
+      <c r="C54" s="647"/>
+      <c r="D54" s="647"/>
       <c r="E54" s="66" t="s">
         <v>182</v>
       </c>
@@ -64281,8 +64322,8 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="66"/>
       <c r="B55" s="73"/>
-      <c r="C55" s="654"/>
-      <c r="D55" s="653"/>
+      <c r="C55" s="647"/>
+      <c r="D55" s="648"/>
       <c r="E55" s="66" t="s">
         <v>183</v>
       </c>
@@ -64292,11 +64333,11 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="66"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="654"/>
-      <c r="D56" s="652" t="s">
+      <c r="C56" s="647"/>
+      <c r="D56" s="646" t="s">
         <v>179</v>
       </c>
-      <c r="E56" s="652" t="s">
+      <c r="E56" s="646" t="s">
         <v>184</v>
       </c>
       <c r="F56" s="66" t="s">
@@ -64307,9 +64348,9 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="66"/>
       <c r="B57" s="73"/>
-      <c r="C57" s="654"/>
-      <c r="D57" s="654"/>
-      <c r="E57" s="654"/>
+      <c r="C57" s="647"/>
+      <c r="D57" s="647"/>
+      <c r="E57" s="647"/>
       <c r="F57" s="66" t="s">
         <v>186</v>
       </c>
@@ -64318,9 +64359,9 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="66"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="654"/>
-      <c r="D58" s="654"/>
-      <c r="E58" s="653"/>
+      <c r="C58" s="647"/>
+      <c r="D58" s="647"/>
+      <c r="E58" s="648"/>
       <c r="F58" s="66" t="s">
         <v>183</v>
       </c>
@@ -64329,9 +64370,9 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="66"/>
       <c r="B59" s="73"/>
-      <c r="C59" s="654"/>
-      <c r="D59" s="654"/>
-      <c r="E59" s="652" t="s">
+      <c r="C59" s="647"/>
+      <c r="D59" s="647"/>
+      <c r="E59" s="646" t="s">
         <v>128</v>
       </c>
       <c r="F59" s="66" t="s">
@@ -64342,9 +64383,9 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="66"/>
       <c r="B60" s="73"/>
-      <c r="C60" s="654"/>
-      <c r="D60" s="653"/>
-      <c r="E60" s="653"/>
+      <c r="C60" s="647"/>
+      <c r="D60" s="648"/>
+      <c r="E60" s="648"/>
       <c r="F60" s="66" t="s">
         <v>188</v>
       </c>
@@ -64353,8 +64394,8 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="66"/>
       <c r="B61" s="73"/>
-      <c r="C61" s="654"/>
-      <c r="D61" s="652" t="s">
+      <c r="C61" s="647"/>
+      <c r="D61" s="646" t="s">
         <v>180</v>
       </c>
       <c r="E61" s="66" t="s">
@@ -64366,8 +64407,8 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="66"/>
       <c r="B62" s="73"/>
-      <c r="C62" s="654"/>
-      <c r="D62" s="654"/>
+      <c r="C62" s="647"/>
+      <c r="D62" s="647"/>
       <c r="E62" s="66" t="s">
         <v>190</v>
       </c>
@@ -64377,8 +64418,8 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="66"/>
       <c r="B63" s="73"/>
-      <c r="C63" s="653"/>
-      <c r="D63" s="653"/>
+      <c r="C63" s="648"/>
+      <c r="D63" s="648"/>
       <c r="E63" s="66" t="s">
         <v>191</v>
       </c>
@@ -64391,7 +64432,7 @@
       <c r="C64" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="D64" s="652" t="s">
+      <c r="D64" s="646" t="s">
         <v>192</v>
       </c>
       <c r="E64" s="66" t="s">
@@ -64404,7 +64445,7 @@
       <c r="A65" s="66"/>
       <c r="B65" s="73"/>
       <c r="C65" s="70"/>
-      <c r="D65" s="653"/>
+      <c r="D65" s="648"/>
       <c r="E65" s="66" t="s">
         <v>194</v>
       </c>
@@ -64490,7 +64531,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="66"/>
-      <c r="B73" s="646" t="s">
+      <c r="B73" s="649" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="67" t="s">
@@ -64503,7 +64544,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="66"/>
-      <c r="B74" s="646"/>
+      <c r="B74" s="649"/>
       <c r="C74" s="70" t="s">
         <v>109</v>
       </c>
@@ -64514,7 +64555,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="66"/>
-      <c r="B75" s="646"/>
+      <c r="B75" s="649"/>
       <c r="C75" s="70" t="s">
         <v>110</v>
       </c>
@@ -64525,7 +64566,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="66"/>
-      <c r="B76" s="646"/>
+      <c r="B76" s="649"/>
       <c r="C76" s="70" t="s">
         <v>111</v>
       </c>
@@ -64536,7 +64577,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="66"/>
-      <c r="B77" s="646"/>
+      <c r="B77" s="649"/>
       <c r="C77" s="70" t="s">
         <v>112</v>
       </c>
@@ -64547,7 +64588,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="66"/>
-      <c r="B78" s="646"/>
+      <c r="B78" s="649"/>
       <c r="C78" s="70" t="s">
         <v>113</v>
       </c>
@@ -64558,7 +64599,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="66"/>
-      <c r="B79" s="646"/>
+      <c r="B79" s="649"/>
       <c r="C79" s="70" t="s">
         <v>114</v>
       </c>
@@ -64569,7 +64610,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="66"/>
-      <c r="B80" s="646"/>
+      <c r="B80" s="649"/>
       <c r="C80" s="70" t="s">
         <v>115</v>
       </c>
@@ -64591,18 +64632,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C21:C26"/>
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C27:C29"/>
@@ -64615,6 +64644,18 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C53:C63"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D56:D60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -64851,7 +64892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
@@ -66343,7 +66384,7 @@
         <v>400</v>
       </c>
       <c r="D69" s="532" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="E69" s="537"/>
       <c r="F69" s="433"/>
@@ -67832,7 +67873,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A134" s="536" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="B134" s="79"/>
       <c r="C134" s="77"/>
@@ -67849,16 +67890,16 @@
     </row>
     <row r="135" spans="1:14" s="539" customFormat="1" ht="114.75" x14ac:dyDescent="0.15">
       <c r="A135" s="487" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="B135" s="532" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C135" s="532" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D135" s="532" t="s">
         <v>2241</v>
-      </c>
-      <c r="C135" s="532" t="s">
-        <v>2242</v>
-      </c>
-      <c r="D135" s="532" t="s">
-        <v>2243</v>
       </c>
       <c r="E135" s="537"/>
       <c r="F135" s="433"/>
@@ -67873,16 +67914,16 @@
     </row>
     <row r="136" spans="1:14" s="539" customFormat="1" ht="140.25" x14ac:dyDescent="0.15">
       <c r="A136" s="487" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="B136" s="532" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="C136" s="532" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D136" s="532" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="E136" s="537"/>
       <c r="F136" s="433"/>
@@ -67897,16 +67938,16 @@
     </row>
     <row r="137" spans="1:14" s="539" customFormat="1" ht="127.5" x14ac:dyDescent="0.15">
       <c r="A137" s="487" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="B137" s="532" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="C137" s="532" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D137" s="532" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="E137" s="537"/>
       <c r="F137" s="433"/>
@@ -67921,16 +67962,16 @@
     </row>
     <row r="138" spans="1:14" s="539" customFormat="1" ht="165.75" x14ac:dyDescent="0.15">
       <c r="A138" s="487" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B138" s="532" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="C138" s="532" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D138" s="532" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="E138" s="537"/>
       <c r="F138" s="433"/>
@@ -67945,16 +67986,16 @@
     </row>
     <row r="139" spans="1:14" s="539" customFormat="1" ht="178.5" x14ac:dyDescent="0.15">
       <c r="A139" s="487" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="B139" s="532" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="C139" s="532" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D139" s="532" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="E139" s="537"/>
       <c r="F139" s="433"/>
@@ -68053,7 +68094,7 @@
     </row>
     <row r="3" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="556" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="B3" s="176" t="s">
         <v>499</v>
@@ -68075,7 +68116,7 @@
     </row>
     <row r="4" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="556" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="B4" s="176" t="s">
         <v>497</v>
@@ -68097,7 +68138,7 @@
     </row>
     <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="103" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B5" s="103"/>
       <c r="C5" s="103"/>
@@ -68113,13 +68154,13 @@
     </row>
     <row r="6" spans="1:12" s="545" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="557" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="B6" s="540" t="s">
         <v>501</v>
       </c>
       <c r="C6" s="541" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D6" s="542" t="s">
         <v>502</v>
@@ -68134,13 +68175,13 @@
     </row>
     <row r="7" spans="1:12" s="545" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="557" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B7" s="540" t="s">
         <v>505</v>
       </c>
       <c r="C7" s="541" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D7" s="546" t="s">
         <v>506</v>
@@ -68155,16 +68196,16 @@
     </row>
     <row r="8" spans="1:12" s="545" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="557" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="B8" s="540" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C8" s="541" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D8" s="546" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="E8" s="238"/>
       <c r="F8" s="238"/>
@@ -68176,16 +68217,16 @@
     </row>
     <row r="9" spans="1:12" s="545" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="557" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B9" s="540" t="s">
         <v>510</v>
       </c>
       <c r="C9" s="541" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="D9" s="546" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="E9" s="238"/>
       <c r="F9" s="238"/>
@@ -68197,16 +68238,16 @@
     </row>
     <row r="10" spans="1:12" s="545" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="557" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B10" s="540" t="s">
         <v>511</v>
       </c>
       <c r="C10" s="541" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D10" s="546" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="E10" s="238"/>
       <c r="F10" s="238"/>
@@ -68218,7 +68259,7 @@
     </row>
     <row r="11" spans="1:12" s="545" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="557" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="B11" s="540" t="s">
         <v>507</v>
@@ -68239,13 +68280,13 @@
     </row>
     <row r="12" spans="1:12" s="545" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="557" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="B12" s="540" t="s">
         <v>503</v>
       </c>
       <c r="C12" s="541" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D12" s="546" t="s">
         <v>504</v>
@@ -68260,7 +68301,7 @@
     </row>
     <row r="13" spans="1:12" s="545" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="557" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="B13" s="540" t="s">
         <v>509</v>
@@ -68281,16 +68322,16 @@
     </row>
     <row r="14" spans="1:12" s="545" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="557" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="B14" s="540" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="C14" s="541" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D14" s="546" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="E14" s="238"/>
       <c r="F14" s="238"/>
@@ -68302,7 +68343,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="103" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="B15" s="103"/>
       <c r="C15" s="103"/>
@@ -68317,16 +68358,16 @@
     </row>
     <row r="16" spans="1:12" ht="204" x14ac:dyDescent="0.2">
       <c r="A16" s="548" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="B16" s="549" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="C16" s="434" t="s">
         <v>400</v>
       </c>
       <c r="D16" s="550" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="E16" s="435"/>
       <c r="F16" s="435"/>
@@ -68338,16 +68379,16 @@
     </row>
     <row r="17" spans="1:11" ht="204" x14ac:dyDescent="0.2">
       <c r="A17" s="548" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="B17" s="549" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="C17" s="434" t="s">
         <v>400</v>
       </c>
       <c r="D17" s="550" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="E17" s="435"/>
       <c r="F17" s="435"/>
@@ -68359,16 +68400,16 @@
     </row>
     <row r="18" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A18" s="548" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="B18" s="549" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="C18" s="434" t="s">
         <v>400</v>
       </c>
       <c r="D18" s="550" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="E18" s="435"/>
       <c r="F18" s="435"/>
@@ -68380,16 +68421,16 @@
     </row>
     <row r="19" spans="1:11" s="555" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A19" s="551" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="B19" s="552" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="C19" s="434" t="s">
         <v>400</v>
       </c>
       <c r="D19" s="553" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="E19" s="533"/>
       <c r="F19" s="533"/>
@@ -69304,7 +69345,7 @@
     </row>
     <row r="4" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="492" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B4" s="493" t="s">
         <v>156</v>
@@ -69313,7 +69354,7 @@
         <v>400</v>
       </c>
       <c r="D4" s="494" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="E4" s="492"/>
       <c r="F4" s="495"/>
@@ -69325,7 +69366,7 @@
     </row>
     <row r="5" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="492" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B5" s="493" t="s">
         <v>157</v>
@@ -69334,7 +69375,7 @@
         <v>400</v>
       </c>
       <c r="D5" s="494" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="E5" s="494"/>
       <c r="F5" s="495"/>
@@ -69346,7 +69387,7 @@
     </row>
     <row r="6" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="492" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B6" s="493" t="s">
         <v>155</v>
@@ -69355,7 +69396,7 @@
         <v>400</v>
       </c>
       <c r="D6" s="494" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="E6" s="494"/>
       <c r="F6" s="495"/>
@@ -69367,7 +69408,7 @@
     </row>
     <row r="7" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="492" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B7" s="493" t="s">
         <v>245</v>
@@ -69376,7 +69417,7 @@
         <v>400</v>
       </c>
       <c r="D7" s="494" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="E7" s="494"/>
       <c r="F7" s="495"/>
@@ -69388,7 +69429,7 @@
     </row>
     <row r="8" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="492" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="493" t="s">
         <v>245</v>
@@ -69397,7 +69438,7 @@
         <v>400</v>
       </c>
       <c r="D8" s="494" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="E8" s="494"/>
       <c r="F8" s="495"/>
@@ -69409,7 +69450,7 @@
     </row>
     <row r="9" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="492" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B9" s="493" t="s">
         <v>245</v>
@@ -69418,7 +69459,7 @@
         <v>400</v>
       </c>
       <c r="D9" s="494" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="E9" s="494"/>
       <c r="F9" s="495"/>
@@ -69430,7 +69471,7 @@
     </row>
     <row r="10" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="492" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="B10" s="493" t="s">
         <v>246</v>
@@ -69439,7 +69480,7 @@
         <v>400</v>
       </c>
       <c r="D10" s="494" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="E10" s="494"/>
       <c r="F10" s="495"/>
@@ -69451,16 +69492,16 @@
     </row>
     <row r="11" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="492" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="B11" s="493" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="C11" s="494" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D11" s="494" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="E11" s="494"/>
       <c r="F11" s="495"/>
@@ -69472,7 +69513,7 @@
     </row>
     <row r="12" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="492" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B12" s="493" t="s">
         <v>158</v>
@@ -69481,7 +69522,7 @@
         <v>878</v>
       </c>
       <c r="D12" s="494" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="E12" s="494"/>
       <c r="F12" s="495"/>
@@ -69493,7 +69534,7 @@
     </row>
     <row r="13" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="492" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="B13" s="493" t="s">
         <v>159</v>
@@ -69502,7 +69543,7 @@
         <v>876</v>
       </c>
       <c r="D13" s="494" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="E13" s="494"/>
       <c r="F13" s="495"/>
@@ -69514,7 +69555,7 @@
     </row>
     <row r="14" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="492" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="B14" s="493" t="s">
         <v>160</v>
@@ -69523,7 +69564,7 @@
         <v>876</v>
       </c>
       <c r="D14" s="494" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="E14" s="494"/>
       <c r="F14" s="495"/>
@@ -69535,7 +69576,7 @@
     </row>
     <row r="15" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="492" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="B15" s="493" t="s">
         <v>247</v>
@@ -69556,7 +69597,7 @@
     </row>
     <row r="16" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="492" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="B16" s="493" t="s">
         <v>248</v>
@@ -69577,7 +69618,7 @@
     </row>
     <row r="17" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="492" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="B17" s="493" t="s">
         <v>249</v>
@@ -69598,7 +69639,7 @@
     </row>
     <row r="18" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="492" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="B18" s="493" t="s">
         <v>250</v>
@@ -69619,7 +69660,7 @@
     </row>
     <row r="19" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="492" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="B19" s="493" t="s">
         <v>251</v>
@@ -69640,7 +69681,7 @@
     </row>
     <row r="20" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="492" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="B20" s="493" t="s">
         <v>252</v>
@@ -69649,7 +69690,7 @@
         <v>878</v>
       </c>
       <c r="D20" s="494" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E20" s="494"/>
       <c r="F20" s="495"/>
@@ -69661,7 +69702,7 @@
     </row>
     <row r="21" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="492" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="B21" s="493" t="s">
         <v>252</v>
@@ -69670,7 +69711,7 @@
         <v>878</v>
       </c>
       <c r="D21" s="494" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="E21" s="494"/>
       <c r="F21" s="495"/>
@@ -69682,7 +69723,7 @@
     </row>
     <row r="22" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="492" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="B22" s="493" t="s">
         <v>252</v>
@@ -69691,7 +69732,7 @@
         <v>878</v>
       </c>
       <c r="D22" s="494" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="E22" s="494"/>
       <c r="F22" s="495"/>
@@ -69703,7 +69744,7 @@
     </row>
     <row r="23" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="492" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="B23" s="493" t="s">
         <v>253</v>
@@ -69712,7 +69753,7 @@
         <v>878</v>
       </c>
       <c r="D23" s="494" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="E23" s="494"/>
       <c r="F23" s="495"/>
@@ -69724,16 +69765,16 @@
     </row>
     <row r="24" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="492" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="B24" s="493" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="C24" s="494" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D24" s="494" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="E24" s="494"/>
       <c r="F24" s="495"/>
@@ -69745,16 +69786,16 @@
     </row>
     <row r="25" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="492" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="B25" s="499" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="C25" s="494" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D25" s="494" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="E25" s="494"/>
       <c r="F25" s="495"/>
@@ -69768,7 +69809,7 @@
     </row>
     <row r="26" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="492" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="B26" s="493" t="s">
         <v>413</v>
@@ -69777,7 +69818,7 @@
         <v>400</v>
       </c>
       <c r="D26" s="494" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="E26" s="494"/>
       <c r="F26" s="495"/>
@@ -69789,7 +69830,7 @@
     </row>
     <row r="27" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="492" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="B27" s="493" t="s">
         <v>414</v>
@@ -69798,7 +69839,7 @@
         <v>400</v>
       </c>
       <c r="D27" s="494" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="E27" s="494"/>
       <c r="F27" s="495"/>
@@ -69810,7 +69851,7 @@
     </row>
     <row r="28" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="492" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="B28" s="493" t="s">
         <v>415</v>
@@ -69832,7 +69873,7 @@
     <row r="29" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="492"/>
       <c r="B29" s="499" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="C29" s="494" t="s">
         <v>166</v>
@@ -69849,13 +69890,13 @@
     <row r="30" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="492"/>
       <c r="B30" s="499" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C30" s="494" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D30" s="494" t="s">
         <v>1916</v>
-      </c>
-      <c r="C30" s="494" t="s">
-        <v>1917</v>
-      </c>
-      <c r="D30" s="494" t="s">
-        <v>1918</v>
       </c>
       <c r="E30" s="494"/>
       <c r="F30" s="495"/>
@@ -69870,7 +69911,7 @@
     <row r="31" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="492"/>
       <c r="B31" s="493" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="C31" s="494" t="s">
         <v>166</v>
@@ -69901,7 +69942,7 @@
     </row>
     <row r="33" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="492" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B33" s="493" t="s">
         <v>164</v>
@@ -69922,7 +69963,7 @@
     </row>
     <row r="34" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="492" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B34" s="493" t="s">
         <v>163</v>
@@ -69943,7 +69984,7 @@
     </row>
     <row r="35" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="492" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="B35" s="493" t="s">
         <v>161</v>
@@ -69964,7 +70005,7 @@
     </row>
     <row r="36" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="492" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B36" s="493" t="s">
         <v>254</v>
@@ -69987,7 +70028,7 @@
     </row>
     <row r="37" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="492" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B37" s="493" t="s">
         <v>255</v>
@@ -70008,7 +70049,7 @@
     </row>
     <row r="38" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="492" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="B38" s="493" t="s">
         <v>256</v>
@@ -70029,10 +70070,10 @@
     </row>
     <row r="39" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="492" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="B39" s="493" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="C39" s="494" t="s">
         <v>400</v>
@@ -70050,10 +70091,10 @@
     </row>
     <row r="40" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="492" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B40" s="493" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="C40" s="494" t="s">
         <v>400</v>
@@ -70071,7 +70112,7 @@
     </row>
     <row r="41" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="492" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B41" s="493" t="s">
         <v>257</v>
@@ -70092,7 +70133,7 @@
     </row>
     <row r="42" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="492" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="B42" s="493" t="s">
         <v>258</v>
@@ -70113,7 +70154,7 @@
     </row>
     <row r="43" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="492" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="B43" s="493" t="s">
         <v>259</v>
@@ -70134,10 +70175,10 @@
     </row>
     <row r="44" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="492" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="B44" s="493" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="C44" s="494" t="s">
         <v>400</v>
@@ -70155,10 +70196,10 @@
     </row>
     <row r="45" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="492" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="B45" s="493" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="C45" s="494" t="s">
         <v>400</v>
@@ -70176,7 +70217,7 @@
     </row>
     <row r="46" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="492" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="B46" s="493" t="s">
         <v>260</v>
@@ -70197,7 +70238,7 @@
     </row>
     <row r="47" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="492" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="B47" s="493" t="s">
         <v>261</v>
@@ -70218,7 +70259,7 @@
     </row>
     <row r="48" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="492" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="B48" s="493" t="s">
         <v>262</v>
@@ -70239,10 +70280,10 @@
     </row>
     <row r="49" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="492" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="B49" s="493" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="C49" s="494" t="s">
         <v>400</v>
@@ -70260,10 +70301,10 @@
     </row>
     <row r="50" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="492" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="B50" s="493" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="C50" s="494" t="s">
         <v>400</v>
@@ -70281,7 +70322,7 @@
     </row>
     <row r="51" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="492" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="B51" s="493" t="s">
         <v>263</v>
@@ -70302,7 +70343,7 @@
     </row>
     <row r="52" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="492" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="B52" s="493" t="s">
         <v>264</v>
@@ -70323,7 +70364,7 @@
     </row>
     <row r="53" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="492" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="B53" s="493" t="s">
         <v>265</v>
@@ -70344,10 +70385,10 @@
     </row>
     <row r="54" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="492" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="B54" s="493" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="C54" s="494" t="s">
         <v>400</v>
@@ -70365,10 +70406,10 @@
     </row>
     <row r="55" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="492" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="B55" s="493" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="C55" s="494" t="s">
         <v>400</v>
@@ -70386,7 +70427,7 @@
     </row>
     <row r="56" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="492" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="B56" s="493" t="s">
         <v>266</v>
@@ -70407,7 +70448,7 @@
     </row>
     <row r="57" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="492" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="B57" s="493" t="s">
         <v>267</v>
@@ -70428,7 +70469,7 @@
     </row>
     <row r="58" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="492" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="B58" s="493" t="s">
         <v>268</v>
@@ -70449,10 +70490,10 @@
     </row>
     <row r="59" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="492" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="B59" s="493" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="C59" s="494" t="s">
         <v>400</v>
@@ -70470,10 +70511,10 @@
     </row>
     <row r="60" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="492" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="B60" s="493" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="C60" s="494" t="s">
         <v>400</v>
@@ -70491,7 +70532,7 @@
     </row>
     <row r="61" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="492" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="B61" s="493" t="s">
         <v>269</v>
@@ -70512,7 +70553,7 @@
     </row>
     <row r="62" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="492" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="B62" s="493" t="s">
         <v>270</v>
@@ -70521,7 +70562,7 @@
         <v>400</v>
       </c>
       <c r="D62" s="494" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="E62" s="494"/>
       <c r="F62" s="495"/>
@@ -70533,10 +70574,10 @@
     </row>
     <row r="63" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="492" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="B63" s="493" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="C63" s="494" t="s">
         <v>400</v>
@@ -70554,10 +70595,10 @@
     </row>
     <row r="64" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="492" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="B64" s="493" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="C64" s="494" t="s">
         <v>400</v>
@@ -70575,7 +70616,7 @@
     </row>
     <row r="65" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="492" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="B65" s="493" t="s">
         <v>271</v>
@@ -70596,7 +70637,7 @@
     </row>
     <row r="66" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="492" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="B66" s="493" t="s">
         <v>272</v>
@@ -70605,7 +70646,7 @@
         <v>400</v>
       </c>
       <c r="D66" s="494" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="E66" s="494"/>
       <c r="F66" s="502"/>
@@ -70617,16 +70658,16 @@
     </row>
     <row r="67" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="492" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="B67" s="493" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="C67" s="494" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="D67" s="494" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="E67" s="494"/>
       <c r="F67" s="502"/>
@@ -70638,7 +70679,7 @@
     </row>
     <row r="68" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="492" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="B68" s="493" t="s">
         <v>273</v>
@@ -70659,7 +70700,7 @@
     </row>
     <row r="69" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="492" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="B69" s="493" t="s">
         <v>417</v>
@@ -70668,7 +70709,7 @@
         <v>400</v>
       </c>
       <c r="D69" s="494" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="E69" s="492"/>
       <c r="F69" s="495"/>
@@ -70680,16 +70721,16 @@
     </row>
     <row r="70" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="492" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="B70" s="493" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="C70" s="494" t="s">
         <v>400</v>
       </c>
       <c r="D70" s="494" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="F70" s="502"/>
       <c r="G70" s="502"/>
@@ -70699,16 +70740,16 @@
     </row>
     <row r="71" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="492" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="B71" s="493" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="C71" s="494" t="s">
         <v>400</v>
       </c>
       <c r="D71" s="494" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="F71" s="502"/>
       <c r="G71" s="502"/>
@@ -70718,16 +70759,16 @@
     </row>
     <row r="72" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="492" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="B72" s="493" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="C72" s="494" t="s">
         <v>400</v>
       </c>
       <c r="D72" s="494" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="F72" s="502"/>
       <c r="G72" s="502"/>
@@ -70737,16 +70778,16 @@
     </row>
     <row r="73" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="492" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="B73" s="493" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="C73" s="494" t="s">
         <v>400</v>
       </c>
       <c r="D73" s="494" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="F73" s="502"/>
       <c r="G73" s="502"/>
@@ -70756,16 +70797,16 @@
     </row>
     <row r="74" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="492" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="B74" s="493" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="C74" s="494" t="s">
         <v>400</v>
       </c>
       <c r="D74" s="494" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="F74" s="502"/>
       <c r="G74" s="502"/>
@@ -70775,16 +70816,16 @@
     </row>
     <row r="75" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="492" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="B75" s="493" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="C75" s="494" t="s">
         <v>400</v>
       </c>
       <c r="D75" s="494" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="F75" s="502"/>
       <c r="G75" s="502"/>
@@ -70795,13 +70836,13 @@
     <row r="76" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="492"/>
       <c r="B76" s="493" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C76" s="494" t="s">
         <v>1937</v>
       </c>
-      <c r="C76" s="494" t="s">
-        <v>1939</v>
-      </c>
       <c r="D76" s="494" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="E76" s="494"/>
       <c r="F76" s="495"/>
@@ -70836,10 +70877,10 @@
         <v>274</v>
       </c>
       <c r="C78" s="494" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D78" s="494" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="E78" s="494"/>
       <c r="F78" s="495"/>
@@ -70855,10 +70896,10 @@
         <v>275</v>
       </c>
       <c r="C79" s="494" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D79" s="494" t="s">
         <v>1939</v>
-      </c>
-      <c r="D79" s="494" t="s">
-        <v>1941</v>
       </c>
       <c r="E79" s="494"/>
       <c r="F79" s="502"/>
@@ -70871,7 +70912,7 @@
     <row r="80" spans="1:11" s="496" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="492"/>
       <c r="B80" s="493" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="C80" s="494" t="s">
         <v>165</v>
@@ -70906,7 +70947,7 @@
     </row>
     <row r="82" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="503" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="B82" s="504"/>
       <c r="C82" s="504"/>
@@ -70921,16 +70962,16 @@
     </row>
     <row r="83" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="508" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="B83" s="509" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="C83" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D83" s="510" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="E83" s="511"/>
       <c r="F83" s="511"/>
@@ -70942,16 +70983,16 @@
     </row>
     <row r="84" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="508" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="B84" s="509" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="C84" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D84" s="510" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="E84" s="511"/>
       <c r="F84" s="511"/>
@@ -70963,16 +71004,16 @@
     </row>
     <row r="85" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="508" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="B85" s="509" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="C85" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D85" s="510" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="E85" s="511"/>
       <c r="F85" s="511"/>
@@ -70984,16 +71025,16 @@
     </row>
     <row r="86" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="508" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="B86" s="509" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="C86" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D86" s="510" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="E86" s="513"/>
       <c r="F86" s="513"/>
@@ -71005,16 +71046,16 @@
     </row>
     <row r="87" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="508" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B87" s="509" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="C87" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D87" s="510" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="E87" s="513"/>
       <c r="F87" s="513"/>
@@ -71026,16 +71067,16 @@
     </row>
     <row r="88" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="508" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="B88" s="509" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="C88" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D88" s="510" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="E88" s="513"/>
       <c r="F88" s="513"/>
@@ -71047,16 +71088,16 @@
     </row>
     <row r="89" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="508" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="B89" s="509" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="C89" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D89" s="510" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="E89" s="513"/>
       <c r="F89" s="513"/>
@@ -71068,16 +71109,16 @@
     </row>
     <row r="90" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="508" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="B90" s="509" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="C90" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D90" s="510" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="E90" s="513"/>
       <c r="F90" s="513"/>
@@ -71089,16 +71130,16 @@
     </row>
     <row r="91" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="508" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="B91" s="509" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="C91" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D91" s="514" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="E91" s="513"/>
       <c r="F91" s="513"/>
@@ -71110,16 +71151,16 @@
     </row>
     <row r="92" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="508" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="B92" s="509" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="C92" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D92" s="514" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="E92" s="513"/>
       <c r="F92" s="513"/>
@@ -71131,16 +71172,16 @@
     </row>
     <row r="93" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="508" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="B93" s="509" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="C93" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D93" s="514" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="E93" s="513"/>
       <c r="F93" s="513"/>
@@ -71152,16 +71193,16 @@
     </row>
     <row r="94" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="508" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B94" s="509" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="C94" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D94" s="514" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="E94" s="513"/>
       <c r="F94" s="513"/>
@@ -71173,16 +71214,16 @@
     </row>
     <row r="95" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="508" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="B95" s="509" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="C95" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D95" s="514" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="E95" s="513"/>
       <c r="F95" s="513"/>
@@ -71194,16 +71235,16 @@
     </row>
     <row r="96" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="508" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="B96" s="509" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="C96" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D96" s="514" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="E96" s="511"/>
       <c r="F96" s="513"/>
@@ -71215,16 +71256,16 @@
     </row>
     <row r="97" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="508" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="B97" s="509" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="C97" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D97" s="514" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="E97" s="511"/>
       <c r="F97" s="513"/>
@@ -71236,16 +71277,16 @@
     </row>
     <row r="98" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="508" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="B98" s="509" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="C98" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D98" s="514" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="E98" s="511"/>
       <c r="F98" s="513"/>
@@ -71257,16 +71298,16 @@
     </row>
     <row r="99" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="508" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="B99" s="509" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="C99" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D99" s="514" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="E99" s="511"/>
       <c r="F99" s="513"/>
@@ -71278,16 +71319,16 @@
     </row>
     <row r="100" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="508" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="B100" s="509" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="C100" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D100" s="514" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="E100" s="511"/>
       <c r="F100" s="513"/>
@@ -71299,16 +71340,16 @@
     </row>
     <row r="101" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="508" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="B101" s="509" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="C101" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D101" s="514" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="E101" s="513"/>
       <c r="F101" s="513"/>
@@ -71320,16 +71361,16 @@
     </row>
     <row r="102" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="508" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="B102" s="509" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="C102" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D102" s="514" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="E102" s="513"/>
       <c r="F102" s="513"/>
@@ -71341,16 +71382,16 @@
     </row>
     <row r="103" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="508" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="B103" s="509" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="C103" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D103" s="514" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="E103" s="513"/>
       <c r="F103" s="513"/>
@@ -71362,16 +71403,16 @@
     </row>
     <row r="104" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="508" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="B104" s="509" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="C104" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D104" s="514" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="E104" s="513"/>
       <c r="F104" s="513"/>
@@ -71383,16 +71424,16 @@
     </row>
     <row r="105" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="508" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="B105" s="509" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="C105" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D105" s="514" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="E105" s="513"/>
       <c r="F105" s="513"/>
@@ -71404,16 +71445,16 @@
     </row>
     <row r="106" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="508" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="B106" s="509" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="C106" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D106" s="510" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="E106" s="510"/>
       <c r="F106" s="511"/>
@@ -71425,16 +71466,16 @@
     </row>
     <row r="107" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="508" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="B107" s="509" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="C107" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D107" s="510" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="E107" s="511"/>
       <c r="F107" s="511"/>
@@ -71446,16 +71487,16 @@
     </row>
     <row r="108" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="508" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="B108" s="509" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="C108" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D108" s="510" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="E108" s="511"/>
       <c r="F108" s="511"/>
@@ -71467,16 +71508,16 @@
     </row>
     <row r="109" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="508" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="B109" s="509" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="C109" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D109" s="510" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="E109" s="511"/>
       <c r="F109" s="511"/>
@@ -71488,16 +71529,16 @@
     </row>
     <row r="110" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="508" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="B110" s="509" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="C110" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D110" s="510" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="E110" s="511"/>
       <c r="F110" s="511"/>
@@ -71509,16 +71550,16 @@
     </row>
     <row r="111" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="508" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="B111" s="509" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="C111" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D111" s="510" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="E111" s="511"/>
       <c r="F111" s="511"/>
@@ -71530,16 +71571,16 @@
     </row>
     <row r="112" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="508" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="B112" s="509" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="C112" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D112" s="510" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="E112" s="511"/>
       <c r="F112" s="511"/>
@@ -71551,16 +71592,16 @@
     </row>
     <row r="113" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="508" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="B113" s="509" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="C113" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D113" s="510" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="E113" s="511"/>
       <c r="F113" s="511"/>
@@ -71572,16 +71613,16 @@
     </row>
     <row r="114" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="508" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="B114" s="509" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="C114" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D114" s="510" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="E114" s="511"/>
       <c r="F114" s="511"/>
@@ -71593,16 +71634,16 @@
     </row>
     <row r="115" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="508" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="B115" s="509" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="C115" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D115" s="510" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="E115" s="511"/>
       <c r="F115" s="511"/>
@@ -71614,16 +71655,16 @@
     </row>
     <row r="116" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="508" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="B116" s="509" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="C116" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D116" s="510" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="E116" s="511"/>
       <c r="F116" s="511"/>
@@ -71635,16 +71676,16 @@
     </row>
     <row r="117" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="508" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="B117" s="509" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C117" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D117" s="510" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="E117" s="511"/>
       <c r="F117" s="511"/>
@@ -71656,16 +71697,16 @@
     </row>
     <row r="118" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="508" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="B118" s="509" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="C118" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D118" s="510" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="E118" s="511"/>
       <c r="F118" s="511"/>
@@ -71677,16 +71718,16 @@
     </row>
     <row r="119" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="508" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="B119" s="509" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="C119" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D119" s="510" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="E119" s="511"/>
       <c r="F119" s="511"/>
@@ -71698,16 +71739,16 @@
     </row>
     <row r="120" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="508" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="B120" s="509" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="C120" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D120" s="510" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="E120" s="511"/>
       <c r="F120" s="511"/>
@@ -71719,16 +71760,16 @@
     </row>
     <row r="121" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="508" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="B121" s="509" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="C121" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D121" s="510" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="E121" s="511"/>
       <c r="F121" s="511"/>
@@ -71740,16 +71781,16 @@
     </row>
     <row r="122" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="508" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="B122" s="509" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="C122" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D122" s="510" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="E122" s="511"/>
       <c r="F122" s="511"/>
@@ -71761,16 +71802,16 @@
     </row>
     <row r="123" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="508" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="B123" s="509" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="C123" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D123" s="510" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="E123" s="511"/>
       <c r="F123" s="511"/>
@@ -71782,16 +71823,16 @@
     </row>
     <row r="124" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="508" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="B124" s="509" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C124" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D124" s="510" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="E124" s="511"/>
       <c r="F124" s="511"/>
@@ -71803,16 +71844,16 @@
     </row>
     <row r="125" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="508" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="B125" s="509" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="C125" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D125" s="510" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="E125" s="511"/>
       <c r="F125" s="511"/>
@@ -71824,16 +71865,16 @@
     </row>
     <row r="126" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="508" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="B126" s="509" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="C126" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D126" s="510" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="E126" s="511"/>
       <c r="F126" s="511"/>
@@ -71845,16 +71886,16 @@
     </row>
     <row r="127" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="508" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="B127" s="509" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="C127" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D127" s="510" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="E127" s="511"/>
       <c r="F127" s="511"/>
@@ -71866,16 +71907,16 @@
     </row>
     <row r="128" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="508" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="B128" s="509" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="C128" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D128" s="510" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="E128" s="511"/>
       <c r="F128" s="511"/>
@@ -71887,16 +71928,16 @@
     </row>
     <row r="129" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="508" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="B129" s="509" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="C129" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D129" s="510" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="E129" s="511"/>
       <c r="F129" s="511"/>
@@ -71908,16 +71949,16 @@
     </row>
     <row r="130" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="508" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="B130" s="509" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="C130" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D130" s="510" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="E130" s="511"/>
       <c r="F130" s="511"/>
@@ -71929,7 +71970,7 @@
     </row>
     <row r="131" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="515" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="B131" s="504"/>
       <c r="C131" s="504"/>
@@ -71944,16 +71985,16 @@
     </row>
     <row r="132" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="508" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="B132" s="509" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="C132" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D132" s="510" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="E132" s="511"/>
       <c r="F132" s="511"/>
@@ -71965,16 +72006,16 @@
     </row>
     <row r="133" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="508" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="B133" s="509" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="C133" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D133" s="510" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="E133" s="511"/>
       <c r="F133" s="511"/>
@@ -71986,16 +72027,16 @@
     </row>
     <row r="134" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="508" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="B134" s="509" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="C134" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D134" s="510" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="E134" s="511"/>
       <c r="F134" s="511"/>
@@ -72007,16 +72048,16 @@
     </row>
     <row r="135" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="508" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="B135" s="509" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="C135" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D135" s="510" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="E135" s="511"/>
       <c r="F135" s="511"/>
@@ -72028,16 +72069,16 @@
     </row>
     <row r="136" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="508" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="B136" s="509" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C136" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D136" s="510" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="E136" s="511"/>
       <c r="F136" s="511"/>
@@ -72049,16 +72090,16 @@
     </row>
     <row r="137" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="508" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="B137" s="509" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="C137" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D137" s="510" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="E137" s="511"/>
       <c r="F137" s="511"/>
@@ -72070,16 +72111,16 @@
     </row>
     <row r="138" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="508" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="B138" s="509" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="C138" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D138" s="510" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="E138" s="511"/>
       <c r="F138" s="511"/>
@@ -72091,16 +72132,16 @@
     </row>
     <row r="139" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="508" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="B139" s="509" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C139" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D139" s="510" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="E139" s="511"/>
       <c r="F139" s="511"/>
@@ -72112,16 +72153,16 @@
     </row>
     <row r="140" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="508" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="B140" s="509" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C140" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D140" s="510" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="E140" s="511"/>
       <c r="F140" s="511"/>
@@ -72133,16 +72174,16 @@
     </row>
     <row r="141" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="508" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="B141" s="509" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C141" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D141" s="510" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="E141" s="511"/>
       <c r="F141" s="511"/>
@@ -72154,16 +72195,16 @@
     </row>
     <row r="142" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="508" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="B142" s="509" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="C142" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D142" s="510" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="E142" s="511"/>
       <c r="F142" s="511"/>
@@ -72175,16 +72216,16 @@
     </row>
     <row r="143" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="508" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="B143" s="509" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C143" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D143" s="510" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="E143" s="511"/>
       <c r="F143" s="511"/>
@@ -72196,16 +72237,16 @@
     </row>
     <row r="144" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="508" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="B144" s="509" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C144" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D144" s="510" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="E144" s="511"/>
       <c r="F144" s="511"/>
@@ -72217,16 +72258,16 @@
     </row>
     <row r="145" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="508" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="B145" s="509" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C145" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D145" s="510" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="E145" s="511"/>
       <c r="F145" s="511"/>
@@ -72238,16 +72279,16 @@
     </row>
     <row r="146" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="508" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="B146" s="509" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C146" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D146" s="510" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="E146" s="511"/>
       <c r="F146" s="511"/>
@@ -72259,16 +72300,16 @@
     </row>
     <row r="147" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="508" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="B147" s="509" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C147" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D147" s="510" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="E147" s="511"/>
       <c r="F147" s="511"/>
@@ -72280,16 +72321,16 @@
     </row>
     <row r="148" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="508" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="B148" s="509" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C148" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D148" s="510" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="E148" s="511"/>
       <c r="F148" s="511"/>
@@ -72301,16 +72342,16 @@
     </row>
     <row r="149" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="508" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="B149" s="509" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C149" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D149" s="510" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="E149" s="511"/>
       <c r="F149" s="511"/>
@@ -72322,16 +72363,16 @@
     </row>
     <row r="150" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="508" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="B150" s="509" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C150" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D150" s="510" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="E150" s="511"/>
       <c r="F150" s="511"/>
@@ -72343,16 +72384,16 @@
     </row>
     <row r="151" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="508" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="B151" s="509" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="C151" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D151" s="510" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="E151" s="511"/>
       <c r="F151" s="511"/>
@@ -72364,16 +72405,16 @@
     </row>
     <row r="152" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="508" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="B152" s="509" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C152" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D152" s="510" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="E152" s="511"/>
       <c r="F152" s="511"/>
@@ -72385,16 +72426,16 @@
     </row>
     <row r="153" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="508" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="B153" s="509" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C153" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D153" s="510" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="E153" s="511"/>
       <c r="F153" s="511"/>
@@ -72406,16 +72447,16 @@
     </row>
     <row r="154" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="508" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="B154" s="509" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C154" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D154" s="510" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="E154" s="511"/>
       <c r="F154" s="511"/>
@@ -72427,16 +72468,16 @@
     </row>
     <row r="155" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="508" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="B155" s="509" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="C155" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D155" s="510" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="E155" s="511"/>
       <c r="F155" s="511"/>
@@ -72448,16 +72489,16 @@
     </row>
     <row r="156" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="508" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="B156" s="509" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C156" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D156" s="510" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="E156" s="511"/>
       <c r="F156" s="511"/>
@@ -72469,16 +72510,16 @@
     </row>
     <row r="157" spans="1:11" s="535" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="530" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="B157" s="531" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C157" s="532" t="s">
         <v>400</v>
       </c>
       <c r="D157" s="533" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="E157" s="534"/>
       <c r="F157" s="534"/>
@@ -72490,16 +72531,16 @@
     </row>
     <row r="158" spans="1:11" s="512" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="508" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="B158" s="509" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C158" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D158" s="510" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="E158" s="511"/>
       <c r="F158" s="511"/>
@@ -72511,10 +72552,10 @@
     </row>
     <row r="159" spans="1:11" s="524" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="519" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B159" s="520" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="C159" s="520"/>
       <c r="D159" s="520"/>
@@ -72528,16 +72569,16 @@
     </row>
     <row r="160" spans="1:11" s="529" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="525" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="B160" s="526" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="C160" s="527" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D160" s="525" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="E160" s="528"/>
       <c r="F160" s="528"/>
@@ -72549,7 +72590,7 @@
     </row>
     <row r="161" spans="1:11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="479" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="B161" s="480"/>
       <c r="C161" s="480"/>
@@ -72564,16 +72605,16 @@
     </row>
     <row r="162" spans="1:11" s="419" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="511" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="B162" s="509" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="C162" s="437" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D162" s="516" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="E162" s="517"/>
       <c r="F162" s="517"/>
@@ -72585,16 +72626,16 @@
     </row>
     <row r="163" spans="1:11" s="419" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="511" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="B163" s="509" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="C163" s="437" t="s">
         <v>878</v>
       </c>
       <c r="D163" s="516" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="E163" s="517"/>
       <c r="F163" s="517"/>
@@ -72606,16 +72647,16 @@
     </row>
     <row r="164" spans="1:11" s="419" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="511" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="B164" s="509" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="C164" s="437" t="s">
         <v>878</v>
       </c>
       <c r="D164" s="516" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="E164" s="517"/>
       <c r="F164" s="517"/>
@@ -72627,16 +72668,16 @@
     </row>
     <row r="165" spans="1:11" s="419" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="511" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="B165" s="509" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="C165" s="437" t="s">
         <v>878</v>
       </c>
       <c r="D165" s="516" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="E165" s="517"/>
       <c r="F165" s="517"/>
@@ -72648,16 +72689,16 @@
     </row>
     <row r="166" spans="1:11" s="419" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="511" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="B166" s="509" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="C166" s="437" t="s">
         <v>878</v>
       </c>
       <c r="D166" s="516" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="E166" s="517"/>
       <c r="F166" s="517"/>
@@ -72669,16 +72710,16 @@
     </row>
     <row r="167" spans="1:11" s="419" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="511" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="B167" s="509" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="C167" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D167" s="516" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="E167" s="511"/>
       <c r="F167" s="511"/>
@@ -72690,16 +72731,16 @@
     </row>
     <row r="168" spans="1:11" s="419" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="511" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="B168" s="509" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="C168" s="437" t="s">
         <v>400</v>
       </c>
       <c r="D168" s="516" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="E168" s="511"/>
       <c r="F168" s="511"/>
@@ -72711,16 +72752,16 @@
     </row>
     <row r="169" spans="1:11" s="419" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="511" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="B169" s="509" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="C169" s="437" t="s">
         <v>878</v>
       </c>
       <c r="D169" s="516" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="E169" s="517"/>
       <c r="F169" s="517"/>
@@ -72732,16 +72773,16 @@
     </row>
     <row r="170" spans="1:11" s="419" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="511" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="B170" s="509" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="C170" s="437" t="s">
         <v>878</v>
       </c>
       <c r="D170" s="516" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="E170" s="517"/>
       <c r="F170" s="517"/>
